--- a/filtered_titles_and_authors.xlsx
+++ b/filtered_titles_and_authors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="993">
   <si>
     <t>Title</t>
   </si>
@@ -25,9 +25,6 @@
     <t>A Comprehensive Survey of Scene Graphs: Generation and Application.</t>
   </si>
   <si>
-    <t>A Function Space Analysis of Finite Neural Networks With Insights From Sampling Theory.</t>
-  </si>
-  <si>
     <t>A General Descent Aggregation Framework for Gradient-Based Bi-Level Optimization.</t>
   </si>
   <si>
@@ -37,18 +34,9 @@
     <t>A Pose-Only Solution to Visual Reconstruction and Navigation.</t>
   </si>
   <si>
-    <t>A Survey on Vision Transformer.</t>
-  </si>
-  <si>
-    <t>Berrut Approximated Coded Computing: Straggler Resistance Beyond Polynomial Computing.</t>
-  </si>
-  <si>
     <t>Binaural SoundNet: Predicting Semantics, Depth and Motion With Binaural Sounds.</t>
   </si>
   <si>
-    <t>BodyPressure - Inferring Body Pose and Contact Pressure From a Depth Image.</t>
-  </si>
-  <si>
     <t>CCMN: A General Framework for Learning With Class-Conditional Multi-Label Noise.</t>
   </si>
   <si>
@@ -61,36 +49,18 @@
     <t>Cyclic Differentiable Architecture Search.</t>
   </si>
   <si>
-    <t>Dataset Bias in Few-Shot Image Recognition.</t>
-  </si>
-  <si>
     <t>Dataset-Driven Unsupervised Object Discovery for Region-Based Instance Image Retrieval.</t>
   </si>
   <si>
-    <t>Deep Gait Recognition: A Survey.</t>
-  </si>
-  <si>
     <t>Deep Learning for Free-Hand Sketch: A Survey.</t>
   </si>
   <si>
-    <t>Deep Order-Preserving Learning With Adaptive Optimal Transport Distance.</t>
-  </si>
-  <si>
-    <t>Deep ROC Analysis and AUC as Balanced Average Accuracy, for Improved Classifier Selection, Audit and Explanation.</t>
-  </si>
-  <si>
-    <t>Deep Time Series Forecasting With Shape and Temporal Criteria.</t>
-  </si>
-  <si>
     <t>Deep Video Prior for Video Consistency and Propagation.</t>
   </si>
   <si>
     <t>DeepMIH: Deep Invertible Network for Multiple Image Hiding.</t>
   </si>
   <si>
-    <t>Deformable Protein Shape Classification Based on Deep Learning, and the Fractional Fokker-Planck and Kähler-Dirac Equations.</t>
-  </si>
-  <si>
     <t>Disentangled Representation Learning for Recommendation.</t>
   </si>
   <si>
@@ -109,45 +79,24 @@
     <t>Egocentric Action Recognition by Automatic Relation Modeling.</t>
   </si>
   <si>
-    <t>End-to-End Handwritten Paragraph Text Recognition Using a Vertical Attention Network.</t>
-  </si>
-  <si>
     <t>Fair Representation: Guaranteeing Approximate Multiple Group Fairness for Unknown Tasks.</t>
   </si>
   <si>
-    <t>From Show to Tell: A Survey on Deep Learning-Based Image Captioning.</t>
-  </si>
-  <si>
     <t>FSGANv2: Improved Subject Agnostic Face Swapping and Reenactment.</t>
   </si>
   <si>
     <t>Global Instance Tracking: Locating Target More Like Humans.</t>
   </si>
   <si>
-    <t>Guiding Labelling Effort for Efficient Learning With Georeferenced Images.</t>
-  </si>
-  <si>
-    <t>Higher-Order Multicuts for Geometric Model Fitting and Motion Segmentation.</t>
-  </si>
-  <si>
     <t>HUMBI: A Large Multiview Dataset of Human Body Expressions and Benchmark Challenge.</t>
   </si>
   <si>
     <t>Image-Text Embedding Learning via Visual and Textual Semantic Reasoning.</t>
   </si>
   <si>
-    <t>Improving Graph Neural Network Expressivity via Subgraph Isomorphism Counting.</t>
-  </si>
-  <si>
-    <t>Instance and Panoptic Segmentation Using Conditional Convolutions.</t>
-  </si>
-  <si>
     <t>Investigating Pose Representations and Motion Contexts Modeling for 3D Motion Prediction.</t>
   </si>
   <si>
-    <t>Key.Net: Keypoint Detection by Handcrafted and Learned CNN Filters Revisited.</t>
-  </si>
-  <si>
     <t>Learning Polymorphic Neural ODEs With Time-Evolving Mixture.</t>
   </si>
   <si>
@@ -163,39 +112,21 @@
     <t>Low Cost and Latency Event Camera Background Activity Denoising.</t>
   </si>
   <si>
-    <t>MSeg: A Composite Dataset for Multi-Domain Semantic Segmentation.</t>
-  </si>
-  <si>
-    <t>MutualNet: Adaptive ConvNet via Mutual Learning From Different Model Configurations.</t>
-  </si>
-  <si>
     <t>Neighborhood Preserving Kernels for Attributed Graphs.</t>
   </si>
   <si>
     <t>PMP-Net++: Point Cloud Completion by Transformer-Enhanced Multi-Step Point Moving Paths.</t>
   </si>
   <si>
-    <t>Point Cloud Sampling via Graph Balancing and Gershgorin Disc Alignment.</t>
-  </si>
-  <si>
-    <t>PoolNet+: Exploring the Potential of Pooling for Salient Object Detection.</t>
-  </si>
-  <si>
     <t>Quality Metric Guided Portrait Line Drawing Generation From Unpaired Training Data.</t>
   </si>
   <si>
-    <t>Real-Time Scene Text Detection With Differentiable Binarization and Adaptive Scale Fusion.</t>
-  </si>
-  <si>
     <t>Recurrent 3D Hand Pose Estimation Using Cascaded Pose-Guided 3D Alignments.</t>
   </si>
   <si>
     <t>Refine-Net: Normal Refinement Neural Network for Noisy Point Clouds.</t>
   </si>
   <si>
-    <t>Reframing Neural Networks: Deep Structure in Overcomplete Representations.</t>
-  </si>
-  <si>
     <t>Reinforced, Incremental and Cross-Lingual Event Detection From Social Messages.</t>
   </si>
   <si>
@@ -205,9 +136,6 @@
     <t>Rethinking Collaborative Metric Learning: Toward an Efficient Alternative Without Negative Sampling.</t>
   </si>
   <si>
-    <t>Robust Multi-View Clustering With Incomplete Information.</t>
-  </si>
-  <si>
     <t>SEEM: A Sequence Entropy Energy-Based Model for Pedestrian Trajectory All-Then-One Prediction.</t>
   </si>
   <si>
@@ -220,9 +148,6 @@
     <t>STORM: Structure-Based Overlap Matching for Partial Point Cloud Registration.</t>
   </si>
   <si>
-    <t>Streaming Variational Monte Carlo.</t>
-  </si>
-  <si>
     <t>Switchable Novel Object Captioner.</t>
   </si>
   <si>
@@ -232,9 +157,6 @@
     <t>Towards Improved and Interpretable Deep Metric Learning via Attentive Grouping.</t>
   </si>
   <si>
-    <t>Towards Pointsets Representation Learning via Self-Supervised Learning and Set Augmentation.</t>
-  </si>
-  <si>
     <t>Towards Zero-Shot Sign Language Recognition.</t>
   </si>
   <si>
@@ -247,30 +169,18 @@
     <t>Visual Micro-Pattern Propagation.</t>
   </si>
   <si>
-    <t>Enhanced Spatio-Temporal Interaction Learning for Video Deraining: Faster and Better.</t>
-  </si>
-  <si>
     <t>Learning to Extract Building Footprints From Off-Nadir Aerial Images.</t>
   </si>
   <si>
     <t>PnP-3D: A Plug-and-Play for 3D Point Clouds.</t>
   </si>
   <si>
-    <t>Vid2CAD: CAD Model Alignment Using Multi-View Constraints From Videos.</t>
-  </si>
-  <si>
     <t>Vision Permutator: A Permutable MLP-Like Architecture for Visual Recognition.</t>
   </si>
   <si>
     <t>4D Atlas: Statistical Analysis of the Spatiotemporal Variability in Longitudinal 3D Shape Data.</t>
   </si>
   <si>
-    <t>A Review of the Gumbel-max Trick and its Extensions for Discrete Stochasticity in Machine Learning.</t>
-  </si>
-  <si>
-    <t>Adaptive Perspective Distillation for Semantic Segmentation.</t>
-  </si>
-  <si>
     <t>Adversarial Examples Generation for Deep Product Quantization Networks on Image Retrieval.</t>
   </si>
   <si>
@@ -280,9 +190,6 @@
     <t>Benchmarking Single-Image Reflection Removal Algorithms.</t>
   </si>
   <si>
-    <t>Beyond 3DMM: Learning to Capture High-Fidelity 3D Face Shape.</t>
-  </si>
-  <si>
     <t>Bilinear Scoring Function Search for Knowledge Graph Learning.</t>
   </si>
   <si>
@@ -292,51 +199,27 @@
     <t>Contextual Transformer Networks for Visual Recognition.</t>
   </si>
   <si>
-    <t>Contingency Space: A Semimetric Space for Classification Evaluation.</t>
-  </si>
-  <si>
     <t>Controllable Image Synthesis With Attribute-Decomposed GAN.</t>
   </si>
   <si>
-    <t>Cross-Modal Learning for Domain Adaptation in 3D Semantic Segmentation.</t>
-  </si>
-  <si>
     <t>Curvature-Adaptive Meta-Learning for Fast Adaptation to Manifold Data.</t>
   </si>
   <si>
-    <t>Dataset Security for Machine Learning: Data Poisoning, Backdoor Attacks, and Defenses.</t>
-  </si>
-  <si>
     <t>DeepCloth: Neural Garment Representation for Shape and Style Editing.</t>
   </si>
   <si>
     <t>Differentiable Graph Module (DGM) for Graph Convolutional Networks.</t>
   </si>
   <si>
-    <t>Discriminant Feature Extraction by Generalized Difference Subspace.</t>
-  </si>
-  <si>
     <t>Dual Networks Based 3D Multi-Person Pose Estimation From Monocular Video.</t>
   </si>
   <si>
     <t>Duality-Induced Regularizer for Semantic Matching Knowledge Graph Embeddings.</t>
   </si>
   <si>
-    <t>Dynamic Differential Image Circle Diameter Measurement Precision Assessment: Application to Burning Droplets.</t>
-  </si>
-  <si>
     <t>Emotional Attention: From Eye Tracking to Computational Modeling.</t>
   </si>
   <si>
-    <t>Enhancing Photorealism Enhancement.</t>
-  </si>
-  <si>
-    <t>Evaluation for Weakly Supervised Object Localization: Protocol, Metrics, and Datasets.</t>
-  </si>
-  <si>
-    <t>Exploring Structural Sparsity of Deep Networks Via Inverse Scale Spaces.</t>
-  </si>
-  <si>
     <t>From Big to Small: Adaptive Learning to Partial-Set Domains.</t>
   </si>
   <si>
@@ -352,21 +235,12 @@
     <t>Hawkes Processes With Stochastic Exogenous Effects for Continuous-Time Interaction Modelling.</t>
   </si>
   <si>
-    <t>Heterogeneous Domain Adaptation With Adversarial Neural Representation Learning: Experiments on E-Commerce and Cybersecurity.</t>
-  </si>
-  <si>
     <t>Incremental Ensemble Gaussian Processes.</t>
   </si>
   <si>
-    <t>Learning Continuous-Time Dynamics With Attention.</t>
-  </si>
-  <si>
     <t>Learning Deep Binary Descriptors via Bitwise Interaction Mining.</t>
   </si>
   <si>
-    <t>Learning Enriched Features for Fast Image Restoration and Enhancement.</t>
-  </si>
-  <si>
     <t>Learning Hierarchical Variational Autoencoders With Mutual Information Maximization for Autoregressive Sequence Modeling.</t>
   </si>
   <si>
@@ -403,9 +277,6 @@
     <t>Optimization-Based Post-Training Quantization With Bit-Split and Stitching.</t>
   </si>
   <si>
-    <t>Physics Perception in Sloshing Scenes With Guaranteed Thermodynamic Consistency.</t>
-  </si>
-  <si>
     <t>Physics-Guided Reflection Separation From a Pair of Unpolarized and Polarized Images.</t>
   </si>
   <si>
@@ -430,15 +301,6 @@
     <t>Recurrent Neural Networks for Snapshot Compressive Imaging.</t>
   </si>
   <si>
-    <t>Reduced-Rank Tensor-on-Tensor Regression and Tensor-Variate Analysis of Variance.</t>
-  </si>
-  <si>
-    <t>Reinforced Causal Explainer for Graph Neural Networks.</t>
-  </si>
-  <si>
-    <t>Review of Serial and Parallel Min-Cut/Max-Flow Algorithms for Computer Vision.</t>
-  </si>
-  <si>
     <t>Safe RuleFit: Learning Optimal Sparse Rule Model by Meta Safe Screening.</t>
   </si>
   <si>
@@ -448,9 +310,6 @@
     <t>Scale-Aware Automatic Augmentations for Object Detection With Dynamic Training.</t>
   </si>
   <si>
-    <t>SCRDet++: Detecting Small, Cluttered and Rotated Objects via Instance-Level Feature Denoising and Rotation Loss Smoothing.</t>
-  </si>
-  <si>
     <t>Self-Supervised Learning of Graph Neural Networks: A Unified Review.</t>
   </si>
   <si>
@@ -463,30 +322,15 @@
     <t>TAGNet: Learning Configurable Context Pathways for Semantic Segmentation.</t>
   </si>
   <si>
-    <t>Text-Driven Video Acceleration: A Weakly-Supervised Reinforcement Learning Method.</t>
-  </si>
-  <si>
-    <t>The Group Loss++: A Deeper Look Into Group Loss for Deep Metric Learning.</t>
-  </si>
-  <si>
-    <t>Time-Ordered Recent Event (TORE) Volumes for Event Cameras.</t>
-  </si>
-  <si>
     <t>Toyota Smarthome Untrimmed: Real-World Untrimmed Videos for Activity Detection.</t>
   </si>
   <si>
     <t>Trusted Multi-View Classification With Dynamic Evidential Fusion.</t>
   </si>
   <si>
-    <t>Uncertainty-Aware Contrastive Distillation for Incremental Semantic Segmentation.</t>
-  </si>
-  <si>
     <t>Unsupervised Feature Selection via Graph Regularized Nonnegative CP Decomposition.</t>
   </si>
   <si>
-    <t>Video Object Segmentation Using Kernelized Memory Network With Multiple Kernels.</t>
-  </si>
-  <si>
     <t>VoxelTrack: Multi-Person 3D Human Pose Estimation and Tracking in the Wild.</t>
   </si>
   <si>
@@ -496,9 +340,6 @@
     <t>Maximum Block Energy Guided Robust Subspace Clustering.</t>
   </si>
   <si>
-    <t>Robust Pose Transfer With Dynamic Details Using Neural Video Rendering.</t>
-  </si>
-  <si>
     <t>A Low Rank Promoting Prior for Unsupervised Contrastive Learning.</t>
   </si>
   <si>
@@ -517,18 +358,12 @@
     <t>Are Graph Convolutional Networks With Random Weights Feasible?</t>
   </si>
   <si>
-    <t>Bag of Tricks for Training Deeper Graph Neural Networks: A Comprehensive Benchmark Study.</t>
-  </si>
-  <si>
     <t>CAS(ME)3: A Third Generation Facial Spontaneous Micro-Expression Database With Depth Information and High Ecological Validity.</t>
   </si>
   <si>
     <t>CASIA-E: A Large Comprehensive Dataset for Gait Recognition.</t>
   </si>
   <si>
-    <t>Certifiably Optimal Outlier-Robust Geometric Perception: Semidefinite Relaxations and Scalable Global Optimization.</t>
-  </si>
-  <si>
     <t>Class-Wise Denoising for Robust Learning Under Label Noise.</t>
   </si>
   <si>
@@ -538,9 +373,6 @@
     <t>Continual Learning for Blind Image Quality Assessment.</t>
   </si>
   <si>
-    <t>Data Augmentation in High Dimensional Low Sample Size Setting Using a Geometry-Based Variational Autoencoder.</t>
-  </si>
-  <si>
     <t>Deep Generative Mixture Model for Robust Imbalance Classification.</t>
   </si>
   <si>
@@ -550,15 +382,9 @@
     <t>DeepTag: A General Framework for Fiducial Marker Design and Detection.</t>
   </si>
   <si>
-    <t>Dynamic Support Network for Few-Shot Class Incremental Learning.</t>
-  </si>
-  <si>
     <t>E$^{3}$3Outlier: a Self-Supervised Framework for Unsupervised Deep Outlier Detection.</t>
   </si>
   <si>
-    <t>Efficient Image and Sentence Matching.</t>
-  </si>
-  <si>
     <t>RF-Next: Efficient Receptive Field Search for Convolutional Neural Networks.</t>
   </si>
   <si>
@@ -580,21 +406,12 @@
     <t>SiamMask: A Framework for Fast Online Object Tracking and Segmentation.</t>
   </si>
   <si>
-    <t>Few-Shot Object Detection and Viewpoint Estimation for Objects in the Wild.</t>
-  </si>
-  <si>
     <t>From Pose to Part: Weakly-Supervised Pose Evolution for Human Part Segmentation.</t>
   </si>
   <si>
     <t>GAN Inversion: A Survey.</t>
   </si>
   <si>
-    <t>Generalized Focal Loss: Towards Efficient Representation Learning for Dense Object Detection.</t>
-  </si>
-  <si>
-    <t>GLEAN: Generative Latent Bank for Image Super-Resolution and Beyond.</t>
-  </si>
-  <si>
     <t>Group Contrastive Self-Supervised Learning on Graphs.</t>
   </si>
   <si>
@@ -610,15 +427,9 @@
     <t>Hypergraph Collaborative Network on Vertices and Hyperedges.</t>
   </si>
   <si>
-    <t>Instance Shadow Detection With a Single-Stage Detector.</t>
-  </si>
-  <si>
     <t>Intrinsic and Isotropic Resampling for 3D Point Clouds.</t>
   </si>
   <si>
-    <t>KITTI-360: A Novel Dataset and Benchmarks for Urban Scene Understanding in 2D and 3D.</t>
-  </si>
-  <si>
     <t>Label-Guided Generative Adversarial Network for Realistic Image Synthesis.</t>
   </si>
   <si>
@@ -661,9 +472,6 @@
     <t>MLR-SNet: Transferable LR Schedules for Heterogeneous Tasks.</t>
   </si>
   <si>
-    <t>MMNet: A Model-Based Multimodal Network for Human Action Recognition in RGB-D Videos.</t>
-  </si>
-  <si>
     <t>MVSS-Net: Multi-View Multi-Scale Supervised Networks for Image Manipulation Detection.</t>
   </si>
   <si>
@@ -682,27 +490,15 @@
     <t>Optimization Induced Equilibrium Networks: An Explicit Optimization Perspective for Understanding Equilibrium Models.</t>
   </si>
   <si>
-    <t>Radar-Based Shape and Reflectivity Reconstruction Using Active Surfaces and the Level Set Method.</t>
-  </si>
-  <si>
-    <t>Random and Adversarial Bit Error Robustness: Energy-Efficient and Secure DNN Accelerators.</t>
-  </si>
-  <si>
     <t>Rectified Wasserstein Generative Adversarial Networks for Perceptual Image Restoration.</t>
   </si>
   <si>
-    <t>RED++ : Data-Free Pruning of Deep Neural Networks via Input Splitting and Output Merging.</t>
-  </si>
-  <si>
     <t>Relation Matters: Foreground-Aware Graph-Based Relational Reasoning for Domain Adaptive Object Detection.</t>
   </si>
   <si>
     <t>ResLT: Residual Learning for Long-Tailed Recognition.</t>
   </si>
   <si>
-    <t>ResNet-LDDMM: Advancing the LDDMM Framework Using Deep Residual Networks.</t>
-  </si>
-  <si>
     <t>Revisiting Unsupervised Meta-Learning via the Characteristics of Few-Shot Tasks.</t>
   </si>
   <si>
@@ -715,18 +511,12 @@
     <t>Semantic Layout Manipulation With High-Resolution Sparse Attention.</t>
   </si>
   <si>
-    <t>SIGN: Statistical Inference Graphs Based on Probabilistic Network Activity Interpretation.</t>
-  </si>
-  <si>
     <t>SipMaskv2: Enhanced Fast Image and Video Instance Segmentation.</t>
   </si>
   <si>
     <t>Spoof Trace Disentanglement for Generic Face Anti-Spoofing.</t>
   </si>
   <si>
-    <t>Superadditivity and Convex Optimization for Globally Optimal Cell Segmentation Using Deformable Shape Models.</t>
-  </si>
-  <si>
     <t>TN-ZSTAD: Transferable Network for Zero-Shot Temporal Activity Detection.</t>
   </si>
   <si>
@@ -736,9 +526,6 @@
     <t>Unsupervised Contrastive Cross-Modal Hashing.</t>
   </si>
   <si>
-    <t>Unsupervised Learning for Maximum Consensus Robust Fitting: A Reinforcement Learning Approach.</t>
-  </si>
-  <si>
     <t>Video Joint Modelling Based on Hierarchical Transformer for Co-Summarization.</t>
   </si>
   <si>
@@ -751,60 +538,30 @@
     <t>You Only Train Once: Learning General and Distinctive 3D Local Descriptors.</t>
   </si>
   <si>
-    <t>EDFace-Celeb-1 M: Benchmarking Face Hallucination With a Million-Scale Dataset.</t>
-  </si>
-  <si>
     <t>Manifold Neural Network With Non-Gradient Optimization.</t>
   </si>
   <si>
     <t>Understanding the Constraints in Maximum Entropy Methods for Modeling and Inference.</t>
   </si>
   <si>
-    <t>Adversarial Robustness Via Fisher-Rao Regularization.</t>
-  </si>
-  <si>
     <t>1xN Pattern for Pruning Convolutional Neural Networks.</t>
   </si>
   <si>
-    <t>A Deeper Look into DeepCap (Invited Paper).</t>
-  </si>
-  <si>
-    <t>A Deterministic Approximation to Neural SDEs.</t>
-  </si>
-  <si>
     <t>A New Automatic Hyperparameter Recommendation Approach Under Low-Rank Tensor Completion e Framework.</t>
   </si>
   <si>
     <t>A Review of Generalized Zero-Shot Learning Methods.</t>
   </si>
   <si>
-    <t>A Survey of Self-Supervised and Few-Shot Object Detection.</t>
-  </si>
-  <si>
     <t>A Tale of HodgeRank and Spectral Method: Target Attack Against Rank Aggregation is the Fixed Point of Adversarial Game.</t>
   </si>
   <si>
-    <t>Action Recognition From a Single Coded Image.</t>
-  </si>
-  <si>
     <t>Adaptive Multi-View and Temporal Fusing Transformer for 3D Human Pose Estimation.</t>
   </si>
   <si>
-    <t>Adaptive Two-Stream Consensus Network for Weakly-Supervised Temporal Action Localization.</t>
-  </si>
-  <si>
-    <t>Adjacency Constraint for Efficient Hierarchical Reinforcement Learning.</t>
-  </si>
-  <si>
-    <t>Adversarially Robust One-Class Novelty Detection.</t>
-  </si>
-  <si>
     <t>Boosting Photon-Efficient Image Reconstruction With A Unified Deep Neural Network.</t>
   </si>
   <si>
-    <t>BuresNet: Conditional Bures Metric for Transferable Representation Learning.</t>
-  </si>
-  <si>
     <t>Class-Specific Semantic Reconstruction for Open Set Recognition.</t>
   </si>
   <si>
@@ -829,9 +586,6 @@
     <t>DeepLogic: Joint Learning of Neural Perception and Logical Reasoning.</t>
   </si>
   <si>
-    <t>Detecting Rotated Objects as Gaussian Distributions and its 3-D Generalization.</t>
-  </si>
-  <si>
     <t>Discrete Search Photometric Stereo for Fast and Accurate Shape Estimation.</t>
   </si>
   <si>
@@ -841,9 +595,6 @@
     <t>Do the Math: Making Mathematics in Wikipedia Computable.</t>
   </si>
   <si>
-    <t>Domain Generalization: A Survey.</t>
-  </si>
-  <si>
     <t>DSGN++: Exploiting Visual-Spatial Relation for Stereo-Based 3D Detectors.</t>
   </si>
   <si>
@@ -853,27 +604,15 @@
     <t>Dual Contrastive Prediction for Incomplete Multi-View Representation Learning.</t>
   </si>
   <si>
-    <t>EM-Driven Unsupervised Learning for Efficient Motion Segmentation.</t>
-  </si>
-  <si>
     <t>Exploring Fine-Grained Sparsity in Convolutional Neural Networks for Efficient Inference.</t>
   </si>
   <si>
-    <t>Fast Hierarchical Games for Image Explanations.</t>
-  </si>
-  <si>
     <t>Fast Quaternion Product Units for Learning Disentangled Representations in $\mathbb {SO}(3)$.</t>
   </si>
   <si>
-    <t>FedIPR: Ownership Verification for Federated Deep Neural Network Models.</t>
-  </si>
-  <si>
     <t>Fourier Series Expansion Based Filter Parametrization for Equivariant Convolutions.</t>
   </si>
   <si>
-    <t>Fully Convolutional Networks for Panoptic Segmentation With Point-Based Supervision.</t>
-  </si>
-  <si>
     <t>FVC: An End-to-End Framework Towards Deep Video Compression in Feature Space.</t>
   </si>
   <si>
@@ -886,36 +625,15 @@
     <t>Hierarchical Prototype Networks for Continual Graph Representation Learning.</t>
   </si>
   <si>
-    <t>High Dimensional Mode Hunting Using Pettiest Components Analysis.</t>
-  </si>
-  <si>
     <t>Holistic Prototype Activation for Few-Shot Segmentation.</t>
   </si>
   <si>
-    <t>HoughNet: Integrating Near and Long-Range Evidence for Visual Detection.</t>
-  </si>
-  <si>
-    <t>Human Motion Transfer With 3D Constraints and Detail Enhancement.</t>
-  </si>
-  <si>
     <t>Image Feature Information Extraction for Interest Point Detection: A Comprehensive Review.</t>
   </si>
   <si>
-    <t>Image Super-Resolution via Iterative Refinement.</t>
-  </si>
-  <si>
     <t>Imperceptible Transfer Attack and Defense on 3D Point Cloud Classification.</t>
   </si>
   <si>
-    <t>Improved Generalization in Semi-Supervised Learning: A Survey of Theoretical Results.</t>
-  </si>
-  <si>
-    <t>Incidents1M: A Large-Scale Dataset of Images With Natural Disasters, Damage, and Incidents.</t>
-  </si>
-  <si>
-    <t>Information Optimization and Transferable State Abstractions in Deep Reinforcement Learning.</t>
-  </si>
-  <si>
     <t>Integrating Multi-Label Contrastive Learning With Dual Adversarial Graph Neural Networks for Cross-Modal Retrieval.</t>
   </si>
   <si>
@@ -937,9 +655,6 @@
     <t>Learning to Detect 3D Symmetry From Single-View RGB-D Images With Weak Supervision.</t>
   </si>
   <si>
-    <t>Learning to Overcome Noise in Weak Caption Supervision for Object Detection.</t>
-  </si>
-  <si>
     <t>Multi-Oriented Object Detection in Aerial Images With Double Horizontal Rectangles.</t>
   </si>
   <si>
@@ -952,33 +667,18 @@
     <t>Multiview Unsupervised Shapelet Learning for Multivariate Time Series Clustering.</t>
   </si>
   <si>
-    <t>NAAQA: A Neural Architecture for Acoustic Question Answering.</t>
-  </si>
-  <si>
     <t>Object-Occluded Human Shape and Pose Estimation With Probabilistic Latent Consistency.</t>
   </si>
   <si>
-    <t>On the Decision Boundaries of Neural Networks: A Tropical Geometry Perspective.</t>
-  </si>
-  <si>
     <t>Optimizing Partial Area Under the Top-k Curve: Theory and Practice.</t>
   </si>
   <si>
     <t>Out-of-Domain Human Mesh Reconstruction via Dynamic Bilevel Online Adaptation.</t>
   </si>
   <si>
-    <t>Permute Me Softly: Learning Soft Permutations for Graph Representations.</t>
-  </si>
-  <si>
     <t>Quantifying the Knowledge in a DNN to Explain Knowledge Distillation for Classification.</t>
   </si>
   <si>
-    <t>Repurposing GANs for One-Shot Semantic Part Segmentation.</t>
-  </si>
-  <si>
-    <t>Self-Constrained Spectral Clustering.</t>
-  </si>
-  <si>
     <t>SiamBAN: Target-Aware Tracking With Siamese Box Adaptive Network.</t>
   </si>
   <si>
@@ -988,15 +688,9 @@
     <t>Tensorized Bipartite Graph Learning for Multi-View Clustering.</t>
   </si>
   <si>
-    <t>Towards Robust Person Re-Identification by Defending Against Universal Attackers.</t>
-  </si>
-  <si>
     <t>TransCL: Transformer Makes Strong and Flexible Compressive Learning.</t>
   </si>
   <si>
-    <t>Uncertainty Guided Collaborative Training for Weakly Supervised and Unsupervised Temporal Action Localization.</t>
-  </si>
-  <si>
     <t>Unsupervised Learning of Probably Symmetric Deformable 3D Objects From Images in the Wild (Invited Paper).</t>
   </si>
   <si>
@@ -1006,9 +700,6 @@
     <t>ZoomNAS: Searching for Whole-Body Human Pose Estimation in the Wild.</t>
   </si>
   <si>
-    <t>ResMLP: Feedforward Networks for Image Classification With Data-Efficient Training.</t>
-  </si>
-  <si>
     <t>Sparse PCA via $\ell _{2,p}$ℓ2,p-Norm Regularization for Unsupervised Feature Selection.</t>
   </si>
   <si>
@@ -1021,15 +712,9 @@
     <t>A Principled Design of Image Representation: Towards Forensic Tasks.</t>
   </si>
   <si>
-    <t>A Progressive Hierarchical Alternating Least Squares Method for Symmetric Nonnegative Matrix Factorization.</t>
-  </si>
-  <si>
     <t>A Systematic Survey on Deep Generative Models for Graph Generation.</t>
   </si>
   <si>
-    <t>An Efficient Fisher Matrix Approximation Method for Large-Scale Neural Network Optimization.</t>
-  </si>
-  <si>
     <t>Analytical Tensor Voting in ND Space and its Properties.</t>
   </si>
   <si>
@@ -1048,15 +733,6 @@
     <t>Channel Exchanging Networks for Multimodal and Multitask Dense Image Prediction.</t>
   </si>
   <si>
-    <t>Class-Incremental Continual Learning Into the eXtended DER-Verse.</t>
-  </si>
-  <si>
-    <t>Class-Incremental Learning: Survey and Performance Evaluation on Image Classification.</t>
-  </si>
-  <si>
-    <t>Continuous-Time Fitted Value Iteration for Robust Policies.</t>
-  </si>
-  <si>
     <t>Contrastive Learning With Stronger Augmentations.</t>
   </si>
   <si>
@@ -1066,9 +742,6 @@
     <t>Cycle Registration in Persistent Homology With Applications in Topological Bootstrap.</t>
   </si>
   <si>
-    <t>Deep Discriminative Feature Models (DDFMs) for Set Based Face Recognition and Distance Metric Learning.</t>
-  </si>
-  <si>
     <t>Deep Learning for Face Anti-Spoofing: A Survey.</t>
   </si>
   <si>
@@ -1096,30 +769,12 @@
     <t>Efficient 3D Deep LiDAR Odometry.</t>
   </si>
   <si>
-    <t>Exact Decomposition of Joint Low Rankness and Local Smoothness Plus Sparse Matrices.</t>
-  </si>
-  <si>
-    <t>Explainability in Graph Neural Networks: A Taxonomic Survey.</t>
-  </si>
-  <si>
     <t>Generating Hypergraph-Based High-Order Representations of Whole-Slide Histopathological Images for Survival Prediction.</t>
   </si>
   <si>
-    <t>Geodesic-Based Bayesian Coherent Point Drift.</t>
-  </si>
-  <si>
-    <t>Graph Neural Networks in Network Neuroscience.</t>
-  </si>
-  <si>
     <t>HydraMarker: Efficient, Flexible, and Multifold Marker Field Generation.</t>
   </si>
   <si>
-    <t>Implicit Annealing in Kernel Spaces: A Strongly Consistent Clustering Approach.</t>
-  </si>
-  <si>
-    <t>Kernel-Based Generalized Median Computation for Consensus Learning.</t>
-  </si>
-  <si>
     <t>Learn From Unpaired Data for Image Restoration: A Variational Bayes Approach.</t>
   </si>
   <si>
@@ -1132,9 +787,6 @@
     <t>Learning With Nested Scene Modeling and Cooperative Architecture Search for Low-Light Vision.</t>
   </si>
   <si>
-    <t>MaxMatch: Semi-Supervised Learning With Worst-Case Consistency.</t>
-  </si>
-  <si>
     <t>MCIBI++: Soft Mining Contextual Information Beyond Image for Semantic Segmentation.</t>
   </si>
   <si>
@@ -1144,9 +796,6 @@
     <t>Minimizing Estimated Risks on Unlabeled Data: A New Formulation for Semi-Supervised Medical Image Segmentation.</t>
   </si>
   <si>
-    <t>MPED: Quantifying Point Cloud Distortion Based on Multiscale Potential Energy Discrepancy.</t>
-  </si>
-  <si>
     <t>Multi-Channel Attention Selection GANs for Guided Image-to-Image Translation.</t>
   </si>
   <si>
@@ -1159,12 +808,6 @@
     <t>Partial Convolution for Padding, Inpainting, and Image Synthesis.</t>
   </si>
   <si>
-    <t>PrintsGAN: Synthetic Fingerprint Generator.</t>
-  </si>
-  <si>
-    <t>Reformulating Optical Flow to Solve Image-Based Inverse Problems and Quantify Uncertainty.</t>
-  </si>
-  <si>
     <t>Regularized Multi-Output Gaussian Convolution Process With Domain Adaptation.</t>
   </si>
   <si>
@@ -1198,24 +841,12 @@
     <t>SMMP: A Stable-Membership-Based Auto-Tuning Multi-Peak Clustering Algorithm.</t>
   </si>
   <si>
-    <t>Snowflake Point Deconvolution for Point Cloud Completion and Generation With Skip-Transformer.</t>
-  </si>
-  <si>
     <t>Spherical Image Generation From a Few Normal-Field-of-View Images by Considering Scene Symmetry.</t>
   </si>
   <si>
-    <t>ST3D++: Denoised Self-Training for Unsupervised Domain Adaptation on 3D Object Detection.</t>
-  </si>
-  <si>
     <t>Structured Sparsity Optimization With Non-Convex Surrogates of $\ell _{2,0}$ℓ2,0-Norm: A Unified Algorithmic Framework.</t>
   </si>
   <si>
-    <t>Stylized Adversarial Defense.</t>
-  </si>
-  <si>
-    <t>Temporal Representation Learning on Monocular Videos for 3D Human Pose Estimation.</t>
-  </si>
-  <si>
     <t>The Proxy Step-Size Technique for Regularized Optimization on the Sphere Manifold.</t>
   </si>
   <si>
@@ -1228,72 +859,27 @@
     <t>Towards Accurate Reconstruction of 3D Scene Shape From A Single Monocular Image.</t>
   </si>
   <si>
-    <t>Transitional Learning: Exploring the Transition States of Degradation for Blind Super-resolution.</t>
-  </si>
-  <si>
-    <t>Untrained Neural Network Priors for Inverse Imaging Problems: A Survey.</t>
-  </si>
-  <si>
     <t>Variational Label Enhancement.</t>
   </si>
   <si>
-    <t>Visual Object Tracking With Discriminative Filters and Siamese Networks: A Survey and Outlook.</t>
-  </si>
-  <si>
-    <t>VOLO: Vision Outlooker for Visual Recognition.</t>
-  </si>
-  <si>
-    <t>Gaussian RBF Centered Kernel Alignment (CKA) in the Large-Bandwidth Limit.</t>
-  </si>
-  <si>
-    <t>Improving Video Instance Segmentation via Temporal Pyramid Routing.</t>
-  </si>
-  <si>
-    <t>Editorial: Special Section on Egocentric Perception.</t>
-  </si>
-  <si>
     <t>Symbiotic Attention for Egocentric Action Recognition With Object-Centric Alignment.</t>
   </si>
   <si>
-    <t>Multi-Dataset, Multitask Learning of Egocentric Vision Tasks.</t>
-  </si>
-  <si>
     <t>First- And Third-Person Video Co-Analysis By Learning Spatial-Temporal Joint Attention.</t>
   </si>
   <si>
     <t>MS-TCN++: Multi-Stage Temporal Convolutional Network for Action Segmentation.</t>
   </si>
   <si>
-    <t>Domain-Specific Priors and Meta Learning for Few-Shot First-Person Action Recognition.</t>
-  </si>
-  <si>
-    <t>Multiple Trajectory Prediction of Moving Agents With Memory Augmented Networks.</t>
-  </si>
-  <si>
-    <t>Forecasting Action Through Contact Representations From First Person Video.</t>
-  </si>
-  <si>
     <t>Self-Regulated Learning for Egocentric Video Activity Anticipation.</t>
   </si>
   <si>
     <t>A Large-Scale Virtual Dataset and Egocentric Localization for Disaster Responses.</t>
   </si>
   <si>
-    <t>EgoCom: A Multi-Person Multi-Modal Egocentric Communications Dataset.</t>
-  </si>
-  <si>
-    <t>SelfPose: 3D Egocentric Pose Estimation From a Headset Mounted Camera.</t>
-  </si>
-  <si>
     <t>Depth and Video Segmentation Based Visual Attention for Embodied Question Answering.</t>
   </si>
   <si>
-    <t>Generating Personalized Summaries of Day Long Egocentric Videos.</t>
-  </si>
-  <si>
-    <t>Analysis of the Hands in Egocentric Vision: A Survey.</t>
-  </si>
-  <si>
     <t>Guest Editorial: Introduction to the Special Section on Graphs in Vision and Pattern Analysis.</t>
   </si>
   <si>
@@ -1315,18 +901,12 @@
     <t>Learning Multi-View Interactional Skeleton Graph for Action Recognition.</t>
   </si>
   <si>
-    <t>HiGCIN: Hierarchical Graph-Based Cross Inference Network for Group Activity Recognition.</t>
-  </si>
-  <si>
     <t>Learning Graph Convolutional Networks for Multi-Label Recognition and Applications.</t>
   </si>
   <si>
     <t>Combinatorial Learning of Robust Deep Graph Matching: An Embedding Based Approach.</t>
   </si>
   <si>
-    <t>Learning Multi-Attention Context Graph for Group-Based Re-Identification.</t>
-  </si>
-  <si>
     <t>Fashion Retrieval via Graph Reasoning Networks on a Similarity Pyramid.</t>
   </si>
   <si>
@@ -1336,18 +916,9 @@
     <t>LogicENN: A Neural Based Knowledge Graphs Embedding Model With Logical Rules.</t>
   </si>
   <si>
-    <t>Fourier-Based and Rational Graph Filters for Spectral Processing.</t>
-  </si>
-  <si>
-    <t>Co-Embedding of Nodes and Edges With Graph Neural Networks.</t>
-  </si>
-  <si>
     <t>A Differentiable Perspective for Multi-View Spectral Clustering With Flexible Extension.</t>
   </si>
   <si>
-    <t>A Survey on Deep Learning Technique for Video Segmentation.</t>
-  </si>
-  <si>
     <t>ABINet++: Autonomous, Bidirectional and Iterative Language Modeling for Scene Text Spotting.</t>
   </si>
   <si>
@@ -1360,9 +931,6 @@
     <t>CATs++: Boosting Cost Aggregation With Convolutions and Transformers.</t>
   </si>
   <si>
-    <t>Cell Multi-Bernoulli (Cell-MB) Sensor Control for Multi-Object Search-While-Tracking (SWT).</t>
-  </si>
-  <si>
     <t>Contrastive Bayesian Analysis for Deep Metric Learning.</t>
   </si>
   <si>
@@ -1378,18 +946,12 @@
     <t>Differentiable Hierarchical Optimal Transport for Robust Multi-View Learning.</t>
   </si>
   <si>
-    <t>Differentially Private Graph Neural Networks for Whole-Graph Classification.</t>
-  </si>
-  <si>
     <t>DMRNet++: Learning Discriminative Features With Decoupled Networks and Enriched Pairs for One-Step Person Search.</t>
   </si>
   <si>
     <t>Dual Instance-Consistent Network for Cross-Domain Object Detection.</t>
   </si>
   <si>
-    <t>Dynamic Time Warping Based Adversarial Framework for Time-Series Domain.</t>
-  </si>
-  <si>
     <t>Fast Differentiable Matrix Square Root and Inverse Square Root.</t>
   </si>
   <si>
@@ -1426,18 +988,9 @@
     <t>Micro-Supervised Disturbance Learning: A Perspective of Representation Probability Distribution.</t>
   </si>
   <si>
-    <t>Multi-Granularity Anchor-Contrastive Representation Learning for Semi-Supervised Skeleton-Based Action Recognition.</t>
-  </si>
-  <si>
     <t>Mutual-Assistance Learning for Standalone Mono-Modality Survival Analysis of Human Cancers.</t>
   </si>
   <si>
-    <t>Neural Architecture Search via Proxy Validation.</t>
-  </si>
-  <si>
-    <t>NeX360: Real-Time All-Around View Synthesis With Neural Basis Expansion.</t>
-  </si>
-  <si>
     <t>Optimising for Interpretability: Convolutional Dynamic Alignment Networks.</t>
   </si>
   <si>
@@ -1486,9 +1039,6 @@
     <t>TransVOD: End-to-End Video Object Detection With Spatial-Temporal Transformers.</t>
   </si>
   <si>
-    <t>Trifocal Relative Pose From Lines at Points.</t>
-  </si>
-  <si>
     <t>Unsupervised Global and Local Homography Estimation With Motion Basis Learning.</t>
   </si>
   <si>
@@ -1504,9 +1054,6 @@
     <t>In the Eye of the Beholder: Gaze and Actions in First Person Video.</t>
   </si>
   <si>
-    <t>JRDB: A Dataset and Benchmark of Egocentric Robot Visual Perception of Humans in Built Environments.</t>
-  </si>
-  <si>
     <t>A Deep Framework for Hyperspectral Image Fusion Between Different Satellites.</t>
   </si>
   <si>
@@ -1516,9 +1063,6 @@
     <t>A Multi-Task Multi-Stage Transitional Training Framework for Neural Chat Translation.</t>
   </si>
   <si>
-    <t>A New Outlier Removal Strategy Based on Reliability of Correspondence Graph for Fast Point Cloud Registration.</t>
-  </si>
-  <si>
     <t>A Thorough Benchmark and a New Model for Light Field Saliency Detection.</t>
   </si>
   <si>
@@ -1531,9 +1075,6 @@
     <t>Adaptive Siamese Tracking With a Compact Latent Network.</t>
   </si>
   <si>
-    <t>Adaptive Subgraph Neural Network With Reinforced Critical Structure Mining.</t>
-  </si>
-  <si>
     <t>Asymmetric Loss Functions for Noise-Tolerant Learning: Theory and Applications.</t>
   </si>
   <si>
@@ -1558,9 +1099,6 @@
     <t>DaisyRec 2.0: Benchmarking Recommendation for Rigorous Evaluation.</t>
   </si>
   <si>
-    <t>DAN: A Segmentation-Free Document Attention Network for Handwritten Document Recognition.</t>
-  </si>
-  <si>
     <t>Deep Depth Completion From Extremely Sparse Data: A Survey.</t>
   </si>
   <si>
@@ -1570,39 +1108,21 @@
     <t>Detection-Friendly Dehazing: Object Detection in Real-World Hazy Scenes.</t>
   </si>
   <si>
-    <t>Differentiable Multi-Granularity Human Parsing.</t>
-  </si>
-  <si>
     <t>E2E-FS: An End-to-End Feature Selection Method for Neural Networks.</t>
   </si>
   <si>
     <t>EPNet++: Cascade Bi-Directional Fusion for Multi-Modal 3D Object Detection.</t>
   </si>
   <si>
-    <t>Face Forgery Detection by 3D Decomposition and Composition Search.</t>
-  </si>
-  <si>
-    <t>FingerGAN: A Constrained Fingerprint Generation Scheme for Latent Fingerprint Enhancement.</t>
-  </si>
-  <si>
     <t>Formulating Event-Based Image Reconstruction as a Linear Inverse Problem With Deep Regularization Using Optical Flow.</t>
   </si>
   <si>
-    <t>From Keypoints to Object Landmarks via Self-Training Correspondence: A Novel Approach to Unsupervised Landmark Discovery.</t>
-  </si>
-  <si>
     <t>Full-Volume 3D Fluid Flow Reconstruction With Light Field PIV.</t>
   </si>
   <si>
-    <t>GCNet: Graph Completion Network for Incomplete Multimodal Learning in Conversation.</t>
-  </si>
-  <si>
     <t>Geodesic Models With Convexity Shape Prior.</t>
   </si>
   <si>
-    <t>Global Learnable Attention for Single Image Super-Resolution.</t>
-  </si>
-  <si>
     <t>Gradient Descent Ascent for Minimax Problems on Riemannian Manifolds.</t>
   </si>
   <si>
@@ -1615,9 +1135,6 @@
     <t>High-Performance Transformer Tracking.</t>
   </si>
   <si>
-    <t>HOP+: History-Enhanced and Order-Aware Pre-Training for Vision-and-Language Navigation.</t>
-  </si>
-  <si>
     <t>Hybrid High Dynamic Range Imaging fusing Neuromorphic and Conventional Images.</t>
   </si>
   <si>
@@ -1630,30 +1147,18 @@
     <t>Interactive Object Segmentation With Inside-Outside Guidance.</t>
   </si>
   <si>
-    <t>Invariant Policy Learning: A Causal Perspective.</t>
-  </si>
-  <si>
     <t>Knowledge-Aware Global Reasoning for Situation Recognition.</t>
   </si>
   <si>
     <t>Knowledge-Enriched Attention Network With Group-Wise Semantic for Visual Storytelling.</t>
   </si>
   <si>
-    <t>Language-Aware Spatial-Temporal Collaboration for Referring Video Segmentation.</t>
-  </si>
-  <si>
     <t>Learning to See Through With Events.</t>
   </si>
   <si>
     <t>Monocular 3D Fingerprint Reconstruction and Unwarping.</t>
   </si>
   <si>
-    <t>Multi-Label Classification via Adaptive Resonance Theory-Based Clustering.</t>
-  </si>
-  <si>
-    <t>Neural Radiance Fields From Sparse RGB-D Images for High-Quality View Synthesis.</t>
-  </si>
-  <si>
     <t>Non-Graph Data Clustering via $\mathcal {O}(n)$O(n) Bipartite Graph Convolution.</t>
   </si>
   <si>
@@ -1684,9 +1189,6 @@
     <t>Recognizing Object by Components With Human Prior Knowledge Enhances Adversarial Robustness of Deep Neural Networks.</t>
   </si>
   <si>
-    <t>Reference-Based Image and Video Super-Resolution via $C^{2}$-Matching.</t>
-  </si>
-  <si>
     <t>Revealing the Distributional Vulnerability of Discriminators by Implicit Generators.</t>
   </si>
   <si>
@@ -1702,9 +1204,6 @@
     <t>Self-Adversarial Disentangling for Specific Domain Adaptation.</t>
   </si>
   <si>
-    <t>Self-Supervised 3D Representation Learning of Dressed Humans From Social Media Videos.</t>
-  </si>
-  <si>
     <t>Semi-Blindly Enhancing Extremely Noisy Videos With Recurrent Spatio-Temporal Large-Span Network.</t>
   </si>
   <si>
@@ -1717,21 +1216,9 @@
     <t>Simultaneously Optimizing Perturbations and Positions for Black-Box Adversarial Patch Attacks.</t>
   </si>
   <si>
-    <t>Sparse Tensor-Based Multiscale Representation for Point Cloud Geometry Compression.</t>
-  </si>
-  <si>
-    <t>Spatial-Temporal Transformer for Video Snapshot Compressive Imaging.</t>
-  </si>
-  <si>
-    <t>Survey: Leakage and Privacy at Inference Time.</t>
-  </si>
-  <si>
     <t>Task-Aware Weakly Supervised Object Localization With Transformer.</t>
   </si>
   <si>
-    <t>TextStyleBrush: Transfer of Text Aesthetics From a Single Example.</t>
-  </si>
-  <si>
     <t>Towards Lightweight Pixel-Wise Hallucination for Heterogeneous Face Recognition.</t>
   </si>
   <si>
@@ -1786,9 +1273,6 @@
     <t>Cascaded Deep Video Deblurring Using Temporal Sharpness Prior and Non-Local Spatial-Temporal Similarity.</t>
   </si>
   <si>
-    <t>Clustered Task-Aware Meta-Learning by Learning From Learning Paths.</t>
-  </si>
-  <si>
     <t>Coarse-to-fine Disentangling Demoiréing Framework for Recaptured Screen Images.</t>
   </si>
   <si>
@@ -1828,9 +1312,6 @@
     <t>Evaluating Classification Model Against Bayes Error Rate.</t>
   </si>
   <si>
-    <t>Extracting Semantic Knowledge From GANs With Unsupervised Learning.</t>
-  </si>
-  <si>
     <t>Fast and Robust Non-Rigid Registration Using Accelerated Majorization-Minimization.</t>
   </si>
   <si>
@@ -1870,9 +1351,6 @@
     <t>Implicit Neural Representations With Structured Latent Codes for Human Body Modeling.</t>
   </si>
   <si>
-    <t>Insights From Generative Modeling for Neural Video Compression.</t>
-  </si>
-  <si>
     <t>Jointly Defending DeepFake Manipulation and Adversarial Attack Using Decoy Mechanism.</t>
   </si>
   <si>
@@ -1882,24 +1360,15 @@
     <t>Large-Scale Clustering With Structured Optimal Bipartite Graph.</t>
   </si>
   <si>
-    <t>Latent Class-Conditional Noise Model.</t>
-  </si>
-  <si>
     <t>Learning Rates for Nonconvex Pairwise Learning.</t>
   </si>
   <si>
-    <t>Learning to Augment Poses for 3D Human Pose Estimation in Images and Videos.</t>
-  </si>
-  <si>
     <t>Learning to Super-Resolve Blurry Images With Events.</t>
   </si>
   <si>
     <t>Learning With Asymmetric Kernels: Least Squares and Feature Interpretation.</t>
   </si>
   <si>
-    <t>Local-Global Context Aware Transformer for Language-Guided Video Segmentation.</t>
-  </si>
-  <si>
     <t>Localization Distillation for Object Detection.</t>
   </si>
   <si>
@@ -1921,21 +1390,12 @@
     <t>Occlusion-Aware Instance Segmentation Via BiLayer Network Architectures.</t>
   </si>
   <si>
-    <t>Online Knowledge Distillation via Mutual Contrastive Learning for Visual Recognition.</t>
-  </si>
-  <si>
-    <t>Optimizing Two-Way Partial AUC With an End-to-End Framework.</t>
-  </si>
-  <si>
     <t>Performance-Aware Approximation of Global Channel Pruning for Multitask CNNs.</t>
   </si>
   <si>
     <t>Personalized Latent Structure Learning for Recommendation.</t>
   </si>
   <si>
-    <t>Progressive Instance-Aware Feature Learning for Compositional Action Recognition.</t>
-  </si>
-  <si>
     <t>Random Cycle Loss and Its Application to Voice Conversion.</t>
   </si>
   <si>
@@ -2005,9 +1465,6 @@
     <t>CRNet: A Fast Continual Learning Framework With Random Theory.</t>
   </si>
   <si>
-    <t>Dawn of the Transformer Era in Speech Emotion Recognition: Closing the Valence Gap.</t>
-  </si>
-  <si>
     <t>Decoding Visual Neural Representations by Multimodal Learning of Brain-Visual-Linguistic Features.</t>
   </si>
   <si>
@@ -2056,9 +1513,6 @@
     <t>Missingness-Pattern-Adaptive Learning With Incomplete Data.</t>
   </si>
   <si>
-    <t>muxGNN: Multiplex Graph Neural Network for Heterogeneous Graphs.</t>
-  </si>
-  <si>
     <t>Point Cloud Scene Completion With Joint Color and Semantic Estimation From Single RGB-D Image.</t>
   </si>
   <si>
@@ -2080,9 +1534,6 @@
     <t>Representing Multimodal Behaviors With Mean Location for Pedestrian Trajectory Prediction.</t>
   </si>
   <si>
-    <t>SDV-LOAM: Semi-Direct Visual-LiDAR Odometry and Mapping.</t>
-  </si>
-  <si>
     <t>SignBERT+: Hand-Model-Aware Self-Supervised Pre-Training for Sign Language Understanding.</t>
   </si>
   <si>
@@ -2095,33 +1546,18 @@
     <t>Surrogate Modeling for Bayesian Optimization Beyond a Single Gaussian Process.</t>
   </si>
   <si>
-    <t>Temporal Pixel-Level Semantic Understanding Through the VSPW Dataset.</t>
-  </si>
-  <si>
     <t>Unsupervised Point Cloud Representation Learning With Deep Neural Networks: A Survey.</t>
   </si>
   <si>
-    <t>Variational Relational Point Completion Network for Robust 3D Classification.</t>
-  </si>
-  <si>
     <t>Visual Reasoning: From State to Transformation.</t>
   </si>
   <si>
-    <t>An Integrated Fast Hough Transform for Multidimensional Data.</t>
-  </si>
-  <si>
-    <t>GradMDM: Adversarial Attack on Dynamic Networks.</t>
-  </si>
-  <si>
     <t>Measuring Human Perception to Improve Open Set Recognition.</t>
   </si>
   <si>
     <t>Xiaojun Chang</t>
   </si>
   <si>
-    <t>Raja Giryes</t>
-  </si>
-  <si>
     <t>Risheng Liu</t>
   </si>
   <si>
@@ -2131,18 +1567,9 @@
     <t>Qi Cai</t>
   </si>
   <si>
-    <t>Kai Han</t>
-  </si>
-  <si>
-    <t>Tayyebeh Jahani-Nezhad</t>
-  </si>
-  <si>
     <t>Dengxin Dai</t>
   </si>
   <si>
-    <t>Henry M. Clever</t>
-  </si>
-  <si>
     <t>Ming-Kun Xie</t>
   </si>
   <si>
@@ -2155,36 +1582,18 @@
     <t>Hongyuan Yu</t>
   </si>
   <si>
-    <t>Shuqiang Jiang</t>
-  </si>
-  <si>
     <t>Zhongyan Zhang</t>
   </si>
   <si>
-    <t>Alireza Sepas-Moghaddam</t>
-  </si>
-  <si>
     <t>Peng Xu</t>
   </si>
   <si>
-    <t>Ali Akbari</t>
-  </si>
-  <si>
-    <t>André M. Carrington</t>
-  </si>
-  <si>
-    <t>Vincent Le Guen</t>
-  </si>
-  <si>
     <t>Chenyang Lei</t>
   </si>
   <si>
     <t>Zhenyu Guan</t>
   </si>
   <si>
-    <t>Eric Paquet</t>
-  </si>
-  <si>
     <t>Xin Wang</t>
   </si>
   <si>
@@ -2203,45 +1612,24 @@
     <t>Haoxin Li</t>
   </si>
   <si>
-    <t>Denis Coquenet</t>
-  </si>
-  <si>
     <t>Xudong Shen</t>
   </si>
   <si>
-    <t>Matteo Stefanini</t>
-  </si>
-  <si>
     <t>Yuval Nirkin</t>
   </si>
   <si>
     <t>Shiyu Hu</t>
   </si>
   <si>
-    <t>Takaki Yamada</t>
-  </si>
-  <si>
-    <t>Evgeny Levinkov</t>
-  </si>
-  <si>
     <t>Jae Shin Yoon</t>
   </si>
   <si>
     <t>Kunpeng Li</t>
   </si>
   <si>
-    <t>Giorgos Bouritsas</t>
-  </si>
-  <si>
-    <t>Zhi Tian</t>
-  </si>
-  <si>
     <t>Zhenguang Liu</t>
   </si>
   <si>
-    <t>Axel Barroso Laguna</t>
-  </si>
-  <si>
     <t>Tehrim Yoon</t>
   </si>
   <si>
@@ -2257,39 +1645,21 @@
     <t>Shasha Guo</t>
   </si>
   <si>
-    <t>John Lambert</t>
-  </si>
-  <si>
-    <t>Taojiannan Yang</t>
-  </si>
-  <si>
     <t>Asif Salim</t>
   </si>
   <si>
     <t>Xin Wen</t>
   </si>
   <si>
-    <t>Chinthaka Dinesh</t>
-  </si>
-  <si>
-    <t>Jiang-Jiang Liu</t>
-  </si>
-  <si>
     <t>Ran Yi</t>
   </si>
   <si>
-    <t>Minghui Liao</t>
-  </si>
-  <si>
     <t>Xiaoming Deng</t>
   </si>
   <si>
     <t>Haoran Zhou</t>
   </si>
   <si>
-    <t>Calvin Murdock</t>
-  </si>
-  <si>
     <t>Hao Peng</t>
   </si>
   <si>
@@ -2299,9 +1669,6 @@
     <t>Shilong Bao</t>
   </si>
   <si>
-    <t>Mouxing Yang</t>
-  </si>
-  <si>
     <t>Dafeng Wang</t>
   </si>
   <si>
@@ -2314,9 +1681,6 @@
     <t>Yujie Wang</t>
   </si>
   <si>
-    <t>Yuan Zhao</t>
-  </si>
-  <si>
     <t>Yu Wu</t>
   </si>
   <si>
@@ -2326,9 +1690,6 @@
     <t>Xinyi Xu</t>
   </si>
   <si>
-    <t>Pattaramanee Arsomngern</t>
-  </si>
-  <si>
     <t>Yunus Can Bilge</t>
   </si>
   <si>
@@ -2341,30 +1702,18 @@
     <t>Zhen Cui</t>
   </si>
   <si>
-    <t>Kaihao Zhang</t>
-  </si>
-  <si>
     <t>Jinwang Wang</t>
   </si>
   <si>
     <t>Shi Qiu</t>
   </si>
   <si>
-    <t>Kevis-Kokitsi Maninis</t>
-  </si>
-  <si>
     <t>Qibin Hou</t>
   </si>
   <si>
     <t>Hamid Laga</t>
   </si>
   <si>
-    <t>Iris A. M. Huijben</t>
-  </si>
-  <si>
-    <t>Zhuotao Tian</t>
-  </si>
-  <si>
     <t>Bin Chen</t>
   </si>
   <si>
@@ -2374,9 +1723,6 @@
     <t>Renjie Wan</t>
   </si>
   <si>
-    <t>Xiangyu Zhu</t>
-  </si>
-  <si>
     <t>Yongqi Zhang</t>
   </si>
   <si>
@@ -2386,51 +1732,27 @@
     <t>Yehao Li</t>
   </si>
   <si>
-    <t>Azim Ahmadzadeh</t>
-  </si>
-  <si>
     <t>Guo Pu</t>
   </si>
   <si>
-    <t>Maximilian Jaritz</t>
-  </si>
-  <si>
     <t>Zhi Gao</t>
   </si>
   <si>
-    <t>Micah Goldblum</t>
-  </si>
-  <si>
     <t>Zhaoqi Su</t>
   </si>
   <si>
     <t>Anees Kazi</t>
   </si>
   <si>
-    <t>Kazuhiro Fukui</t>
-  </si>
-  <si>
     <t>Yu Cheng</t>
   </si>
   <si>
     <t>Jie Wang</t>
   </si>
   <si>
-    <t>Raisa B. Rasul</t>
-  </si>
-  <si>
     <t>Shaojing Fan</t>
   </si>
   <si>
-    <t>Stephan R. Richter</t>
-  </si>
-  <si>
-    <t>Junsuk Choe</t>
-  </si>
-  <si>
-    <t>Yanwei Fu</t>
-  </si>
-  <si>
     <t>Zhangjie Cao</t>
   </si>
   <si>
@@ -2446,21 +1768,12 @@
     <t>Xuhui Fan</t>
   </si>
   <si>
-    <t>Mohammadreza Ebrahimi</t>
-  </si>
-  <si>
     <t>Qin Lu</t>
   </si>
   <si>
-    <t>Jen-Tzung Chien</t>
-  </si>
-  <si>
     <t>Ziwei Wang</t>
   </si>
   <si>
-    <t>Syed Waqas Zamir</t>
-  </si>
-  <si>
     <t>Dong Qian</t>
   </si>
   <si>
@@ -2497,9 +1810,6 @@
     <t>Peisong Wang</t>
   </si>
   <si>
-    <t>Beatriz Moya</t>
-  </si>
-  <si>
     <t>Youwei Lyu</t>
   </si>
   <si>
@@ -2524,15 +1834,6 @@
     <t>Ziheng Cheng</t>
   </si>
   <si>
-    <t>Carlos Llosa-Vite</t>
-  </si>
-  <si>
-    <t>Xiang Wang</t>
-  </si>
-  <si>
-    <t>Patrick M. Jensen</t>
-  </si>
-  <si>
     <t>Hiroki Kato</t>
   </si>
   <si>
@@ -2542,9 +1843,6 @@
     <t>Yukang Chen</t>
   </si>
   <si>
-    <t>Xue Yang</t>
-  </si>
-  <si>
     <t>Yaochen Xie</t>
   </si>
   <si>
@@ -2557,30 +1855,15 @@
     <t>Di Lin</t>
   </si>
   <si>
-    <t>Washington L. S. Ramos</t>
-  </si>
-  <si>
-    <t>Ismail Elezi</t>
-  </si>
-  <si>
-    <t>R. Wes Baldwin</t>
-  </si>
-  <si>
     <t>Rui Dai</t>
   </si>
   <si>
     <t>Zongbo Han</t>
   </si>
   <si>
-    <t>Guanglei Yang</t>
-  </si>
-  <si>
     <t>Bilian Chen</t>
   </si>
   <si>
-    <t>Hongje Seong</t>
-  </si>
-  <si>
     <t>Yifu Zhang</t>
   </si>
   <si>
@@ -2590,9 +1873,6 @@
     <t>Yalan Qin</t>
   </si>
   <si>
-    <t>Yang-Tian Sun</t>
-  </si>
-  <si>
     <t>Yu Wang</t>
   </si>
   <si>
@@ -2611,18 +1891,12 @@
     <t>Changqin Huang</t>
   </si>
   <si>
-    <t>Tianlong Chen</t>
-  </si>
-  <si>
     <t>Jingting Li</t>
   </si>
   <si>
     <t>Chunfeng Song</t>
   </si>
   <si>
-    <t>Heng Yang</t>
-  </si>
-  <si>
     <t>Chen Gong</t>
   </si>
   <si>
@@ -2632,9 +1906,6 @@
     <t>Weixia Zhang</t>
   </si>
   <si>
-    <t>Clément Chadebec</t>
-  </si>
-  <si>
     <t>Xinyue Wang</t>
   </si>
   <si>
@@ -2644,15 +1915,9 @@
     <t>Zhuming Zhang</t>
   </si>
   <si>
-    <t>Boyu Yang</t>
-  </si>
-  <si>
     <t>Siqi Wang</t>
   </si>
   <si>
-    <t>Yan Huang</t>
-  </si>
-  <si>
     <t>Shanghua Gao</t>
   </si>
   <si>
@@ -2674,21 +1939,12 @@
     <t>Weiming Hu</t>
   </si>
   <si>
-    <t>Yang Xiao</t>
-  </si>
-  <si>
     <t>Yifan Zhao</t>
   </si>
   <si>
     <t>Weihao Xia</t>
   </si>
   <si>
-    <t>Xiang Li</t>
-  </si>
-  <si>
-    <t>Kelvin C. K. Chan</t>
-  </si>
-  <si>
     <t>Yue Gao</t>
   </si>
   <si>
@@ -2701,15 +1957,9 @@
     <t>Hanrui Wu</t>
   </si>
   <si>
-    <t>Tianyu Wang</t>
-  </si>
-  <si>
     <t>Chenlei Lv</t>
   </si>
   <si>
-    <t>Yiyi Liao</t>
-  </si>
-  <si>
     <t>Junchen Zhu</t>
   </si>
   <si>
@@ -2752,9 +2002,6 @@
     <t>Jun Shu</t>
   </si>
   <si>
-    <t>Bruce X. B. Yu</t>
-  </si>
-  <si>
     <t>Chengbo Dong</t>
   </si>
   <si>
@@ -2773,27 +2020,15 @@
     <t>Xingyu Xie</t>
   </si>
   <si>
-    <t>Samuel Bignardi</t>
-  </si>
-  <si>
-    <t>David Stutz</t>
-  </si>
-  <si>
     <t>Haichuan Ma</t>
   </si>
   <si>
-    <t>Edouard Yvinec</t>
-  </si>
-  <si>
     <t>Chaoqi Chen</t>
   </si>
   <si>
     <t>Jiequan Cui</t>
   </si>
   <si>
-    <t>Boulbaba Ben Amor</t>
-  </si>
-  <si>
     <t>Mingchen Zhuge</t>
   </si>
   <si>
@@ -2803,18 +2038,12 @@
     <t>Haitian Zheng</t>
   </si>
   <si>
-    <t>Yael Konforti</t>
-  </si>
-  <si>
     <t>Jiale Cao</t>
   </si>
   <si>
     <t>Yaojie Liu</t>
   </si>
   <si>
-    <t>Leonid Kostrykin</t>
-  </si>
-  <si>
     <t>Lingling Zhang</t>
   </si>
   <si>
@@ -2824,9 +2053,6 @@
     <t>Peng Hu</t>
   </si>
   <si>
-    <t>Giang Truong</t>
-  </si>
-  <si>
     <t>Haopeng Li</t>
   </si>
   <si>
@@ -2842,51 +2068,24 @@
     <t>Amos Golan</t>
   </si>
   <si>
-    <t>Marine Picot</t>
-  </si>
-  <si>
     <t>Mingbao Lin</t>
   </si>
   <si>
-    <t>Marc Habermann</t>
-  </si>
-  <si>
-    <t>Andreas Look</t>
-  </si>
-  <si>
     <t>Liping Deng</t>
   </si>
   <si>
     <t>Farhad Pourpanah</t>
   </si>
   <si>
-    <t>Gabriel Huang</t>
-  </si>
-  <si>
     <t>Ke Ma</t>
   </si>
   <si>
-    <t>Sudhakar Kumawat</t>
-  </si>
-  <si>
     <t>Hui Shuai</t>
   </si>
   <si>
-    <t>Yuanhao Zhai</t>
-  </si>
-  <si>
-    <t>Tianren Zhang</t>
-  </si>
-  <si>
-    <t>Shao-Yuan Lo</t>
-  </si>
-  <si>
     <t>Jiayong Peng</t>
   </si>
   <si>
-    <t>Chuan-Xian Ren</t>
-  </si>
-  <si>
     <t>Hongzhi Huang</t>
   </si>
   <si>
@@ -2920,9 +2119,6 @@
     <t>André Greiner-Petter</t>
   </si>
   <si>
-    <t>Kaiyang Zhou</t>
-  </si>
-  <si>
     <t>Yilun Chen</t>
   </si>
   <si>
@@ -2932,27 +2128,15 @@
     <t>Yijie Lin</t>
   </si>
   <si>
-    <t>Etienne Meunier</t>
-  </si>
-  <si>
     <t>Longguang Wang</t>
   </si>
   <si>
-    <t>Jacopo Teneggi</t>
-  </si>
-  <si>
     <t>Shaofei Qin</t>
   </si>
   <si>
-    <t>Bowen Li</t>
-  </si>
-  <si>
     <t>Qi Xie</t>
   </si>
   <si>
-    <t>Yanwei Li</t>
-  </si>
-  <si>
     <t>Zhihao Hu</t>
   </si>
   <si>
@@ -2965,33 +2149,15 @@
     <t>Xikun Zhang</t>
   </si>
   <si>
-    <t>Tianhao Liu</t>
-  </si>
-  <si>
     <t>Gong Cheng</t>
   </si>
   <si>
-    <t>Nermin Samet</t>
-  </si>
-  <si>
     <t>Junfeng Jing</t>
   </si>
   <si>
-    <t>Chitwan Saharia</t>
-  </si>
-  <si>
     <t>Daizong Liu</t>
   </si>
   <si>
-    <t>Alexander Mey</t>
-  </si>
-  <si>
-    <t>Ethan Weber</t>
-  </si>
-  <si>
-    <t>Diego Gomez</t>
-  </si>
-  <si>
     <t>Shengsheng Qian</t>
   </si>
   <si>
@@ -3013,9 +2179,6 @@
     <t>Yifei Shi</t>
   </si>
   <si>
-    <t>Mesut Erhan Unal</t>
-  </si>
-  <si>
     <t>Guangtao Nie</t>
   </si>
   <si>
@@ -3028,33 +2191,18 @@
     <t>Nan Zhang</t>
   </si>
   <si>
-    <t>Jérôme Abdelnour</t>
-  </si>
-  <si>
     <t>Buzhen Huang</t>
   </si>
   <si>
-    <t>Motasem Alfarra</t>
-  </si>
-  <si>
     <t>Zitai Wang</t>
   </si>
   <si>
     <t>Shanyan Guan</t>
   </si>
   <si>
-    <t>Giannis Nikolentzos</t>
-  </si>
-  <si>
     <t>Quanshi Zhang</t>
   </si>
   <si>
-    <t>Pitchaporn Rewatbowornwong</t>
-  </si>
-  <si>
-    <t>Liang Bai</t>
-  </si>
-  <si>
     <t>Zedu Chen</t>
   </si>
   <si>
@@ -3064,15 +2212,9 @@
     <t>Wei Xia</t>
   </si>
   <si>
-    <t>Fengxiang Yang</t>
-  </si>
-  <si>
     <t>Chong Mou</t>
   </si>
   <si>
-    <t>Wenfei Yang</t>
-  </si>
-  <si>
     <t>Shangzhe Wu</t>
   </si>
   <si>
@@ -3082,9 +2224,6 @@
     <t>Lumin Xu</t>
   </si>
   <si>
-    <t>Hugo Touvron</t>
-  </si>
-  <si>
     <t>Zhengxin Li</t>
   </si>
   <si>
@@ -3094,15 +2233,9 @@
     <t>Shuren Qi</t>
   </si>
   <si>
-    <t>Liangshao Hou</t>
-  </si>
-  <si>
     <t>Xiaojie Guo</t>
   </si>
   <si>
-    <t>Minghan Yang</t>
-  </si>
-  <si>
     <t>Hongbin Lin</t>
   </si>
   <si>
@@ -3121,15 +2254,6 @@
     <t>Yikai Wang</t>
   </si>
   <si>
-    <t>Matteo Boschini</t>
-  </si>
-  <si>
-    <t>Marc Masana</t>
-  </si>
-  <si>
-    <t>Michael Lutter</t>
-  </si>
-  <si>
     <t>Xiao Wang</t>
   </si>
   <si>
@@ -3139,9 +2263,6 @@
     <t>Yohai Reani</t>
   </si>
   <si>
-    <t>Bedirhan Uzun</t>
-  </si>
-  <si>
     <t>Zitong Yu</t>
   </si>
   <si>
@@ -3169,39 +2290,18 @@
     <t>Guangming Wang</t>
   </si>
   <si>
-    <t>Jiangjun Peng</t>
-  </si>
-  <si>
-    <t>Hao Yuan</t>
-  </si>
-  <si>
     <t>Donglin Di</t>
   </si>
   <si>
-    <t>Osamu Hirose</t>
-  </si>
-  <si>
-    <t>Alaa Bessadok</t>
-  </si>
-  <si>
     <t>Mingzhu Zhu</t>
   </si>
   <si>
-    <t>Debolina Paul</t>
-  </si>
-  <si>
-    <t>Andreas Nienkötter</t>
-  </si>
-  <si>
     <t>Dihan Zheng</t>
   </si>
   <si>
     <t>Xiaoming Li</t>
   </si>
   <si>
-    <t>Yangbangyan Jiang</t>
-  </si>
-  <si>
     <t>Zhenchao Jin</t>
   </si>
   <si>
@@ -3211,9 +2311,6 @@
     <t>Fuping Wu</t>
   </si>
   <si>
-    <t>Qi Yang</t>
-  </si>
-  <si>
     <t>Lei Jiao</t>
   </si>
   <si>
@@ -3223,12 +2320,6 @@
     <t>Guilin Liu</t>
   </si>
   <si>
-    <t>Joshua J. Engelsma</t>
-  </si>
-  <si>
-    <t>Aleix Boquet-Pujadas</t>
-  </si>
-  <si>
     <t>Xinming Wang</t>
   </si>
   <si>
@@ -3259,24 +2350,12 @@
     <t>Junyi Guan</t>
   </si>
   <si>
-    <t>Peng Xiang</t>
-  </si>
-  <si>
     <t>Takayuki Hara</t>
   </si>
   <si>
-    <t>Jihan Yang</t>
-  </si>
-  <si>
     <t>Xiaoqin Zhang</t>
   </si>
   <si>
-    <t>Muzammal Naseer</t>
-  </si>
-  <si>
-    <t>Sina Honari</t>
-  </si>
-  <si>
     <t>Fang Bai</t>
   </si>
   <si>
@@ -3289,72 +2368,27 @@
     <t>Wei Yin</t>
   </si>
   <si>
-    <t>Yuanfei Huang</t>
-  </si>
-  <si>
-    <t>Adnan Qayyum</t>
-  </si>
-  <si>
     <t>Ning Xu</t>
   </si>
   <si>
-    <t>Sajid Javed</t>
-  </si>
-  <si>
-    <t>Li Yuan</t>
-  </si>
-  <si>
-    <t>Sergio A. Alvarez</t>
-  </si>
-  <si>
-    <t>Xiangtai Li</t>
-  </si>
-  <si>
-    <t>Antonino Furnari</t>
-  </si>
-  <si>
     <t>Xiaohan Wang</t>
   </si>
   <si>
-    <t>Georgios Kapidis</t>
-  </si>
-  <si>
     <t>Huangyue Yu</t>
   </si>
   <si>
     <t>Shijie Li</t>
   </si>
   <si>
-    <t>Huseyin Coskun</t>
-  </si>
-  <si>
-    <t>Francesco Marchetti</t>
-  </si>
-  <si>
-    <t>Eadom Dessalene</t>
-  </si>
-  <si>
     <t>Zhaobo Qi</t>
   </si>
   <si>
     <t>Hae-Gon Jeon</t>
   </si>
   <si>
-    <t>Curtis G. Northcutt</t>
-  </si>
-  <si>
-    <t>Denis Tomè</t>
-  </si>
-  <si>
     <t>Haonan Luo</t>
   </si>
   <si>
-    <t>Pravin Nagar</t>
-  </si>
-  <si>
-    <t>Andrea Bandini</t>
-  </si>
-  <si>
     <t>Song Bai</t>
   </si>
   <si>
@@ -3376,18 +2410,12 @@
     <t>Minsi Wang</t>
   </si>
   <si>
-    <t>Rui Yan</t>
-  </si>
-  <si>
     <t>Zhao-Min Chen</t>
   </si>
   <si>
     <t>Runzhong Wang</t>
   </si>
   <si>
-    <t>Yichao Yan</t>
-  </si>
-  <si>
     <t>Yiming Gao</t>
   </si>
   <si>
@@ -3397,18 +2425,9 @@
     <t>Mojtaba Nayyeri</t>
   </si>
   <si>
-    <t>Giuseppe Patanè</t>
-  </si>
-  <si>
-    <t>Xiaodong Jiang</t>
-  </si>
-  <si>
     <t>Zhoumin Lu</t>
   </si>
   <si>
-    <t>Tianfei Zhou</t>
-  </si>
-  <si>
     <t>Shancheng Fang</t>
   </si>
   <si>
@@ -3418,9 +2437,6 @@
     <t>Seokju Cho</t>
   </si>
   <si>
-    <t>Keith A. LeGrand</t>
-  </si>
-  <si>
     <t>Shichao Kan</t>
   </si>
   <si>
@@ -3436,18 +2452,12 @@
     <t>Dixin Luo</t>
   </si>
   <si>
-    <t>Tamara T. Mueller</t>
-  </si>
-  <si>
     <t>Chuchu Han</t>
   </si>
   <si>
     <t>Yifan Jiao</t>
   </si>
   <si>
-    <t>Taha Belkhouja</t>
-  </si>
-  <si>
     <t>Andrés F. Duque</t>
   </si>
   <si>
@@ -3478,18 +2488,9 @@
     <t>Jielei Chu</t>
   </si>
   <si>
-    <t>Xiangbo Shu</t>
-  </si>
-  <si>
     <t>Zhenyuan Ning</t>
   </si>
   <si>
-    <t>Yanxi Li</t>
-  </si>
-  <si>
-    <t>Pakkapon Phongthawee</t>
-  </si>
-  <si>
     <t>Moritz Böhle</t>
   </si>
   <si>
@@ -3532,9 +2533,6 @@
     <t>Qianyu Zhou</t>
   </si>
   <si>
-    <t>Ricardo Fabbri</t>
-  </si>
-  <si>
     <t>Henghui Ding</t>
   </si>
   <si>
@@ -3544,9 +2542,6 @@
     <t>Yin Li</t>
   </si>
   <si>
-    <t>Roberto Martín-Martín</t>
-  </si>
-  <si>
     <t>Anjing Guo</t>
   </si>
   <si>
@@ -3556,9 +2551,6 @@
     <t>Chulun Zhou</t>
   </si>
   <si>
-    <t>Li Yan</t>
-  </si>
-  <si>
     <t>Wei Gao</t>
   </si>
   <si>
@@ -3571,9 +2563,6 @@
     <t>Xingping Dong</t>
   </si>
   <si>
-    <t>Jianxin Li</t>
-  </si>
-  <si>
     <t>Xiong Zhou</t>
   </si>
   <si>
@@ -3613,27 +2602,15 @@
     <t>Zhe Liu</t>
   </si>
   <si>
-    <t>Yanming Zhu</t>
-  </si>
-  <si>
     <t>Zelin Zhang</t>
   </si>
   <si>
-    <t>Dimitrios Mallis</t>
-  </si>
-  <si>
     <t>Yuqi Ding</t>
   </si>
   <si>
-    <t>Zheng Lian</t>
-  </si>
-  <si>
     <t>Da Chen</t>
   </si>
   <si>
-    <t>Jian-Nan Su</t>
-  </si>
-  <si>
     <t>Feihu Huang</t>
   </si>
   <si>
@@ -3646,9 +2623,6 @@
     <t>Xin Chen</t>
   </si>
   <si>
-    <t>Yanyuan Qiao</t>
-  </si>
-  <si>
     <t>Jin Han</t>
   </si>
   <si>
@@ -3658,30 +2632,18 @@
     <t>Shiyin Zhang</t>
   </si>
   <si>
-    <t>Sorawit Saengkyongam</t>
-  </si>
-  <si>
     <t>Weijiang Yu</t>
   </si>
   <si>
     <t>Tengpeng Li</t>
   </si>
   <si>
-    <t>Tianrui Hui</t>
-  </si>
-  <si>
     <t>Lei Yu</t>
   </si>
   <si>
     <t>Zhe Cui</t>
   </si>
   <si>
-    <t>Naoki Masuyama</t>
-  </si>
-  <si>
-    <t>Yu-Jie Yuan</t>
-  </si>
-  <si>
     <t>Hongyuan Zhang</t>
   </si>
   <si>
@@ -3706,9 +2668,6 @@
     <t>Xiao Li</t>
   </si>
   <si>
-    <t>Yuming Jiang</t>
-  </si>
-  <si>
     <t>Zhi-Lin Zhao</t>
   </si>
   <si>
@@ -3721,30 +2680,15 @@
     <t>Xiu Su</t>
   </si>
   <si>
-    <t>Yasamin Jafarian</t>
-  </si>
-  <si>
     <t>Binhui Xie</t>
   </si>
   <si>
     <t>Wuyang Li</t>
   </si>
   <si>
-    <t>Jianqiang Wang</t>
-  </si>
-  <si>
-    <t>Lishun Wang</t>
-  </si>
-  <si>
-    <t>Marija Jegorova</t>
-  </si>
-  <si>
     <t>Meng Meng</t>
   </si>
   <si>
-    <t>Praveen Krishnan</t>
-  </si>
-  <si>
     <t>Chaoyou Fu</t>
   </si>
   <si>
@@ -3799,9 +2743,6 @@
     <t>Jinshan Pan</t>
   </si>
   <si>
-    <t>Danni Peng</t>
-  </si>
-  <si>
     <t>Ce Wang</t>
   </si>
   <si>
@@ -3838,9 +2779,6 @@
     <t>Qingqiang Chen</t>
   </si>
   <si>
-    <t>Jianjin Xu</t>
-  </si>
-  <si>
     <t>Yuxin Yao</t>
   </si>
   <si>
@@ -3880,9 +2818,6 @@
     <t>Sida Peng</t>
   </si>
   <si>
-    <t>Ruihan Yang</t>
-  </si>
-  <si>
     <t>Guan-Lin Chen</t>
   </si>
   <si>
@@ -3892,21 +2827,12 @@
     <t>Han Zhang</t>
   </si>
   <si>
-    <t>Jiangchao Yao</t>
-  </si>
-  <si>
     <t>Shaojie Li</t>
   </si>
   <si>
-    <t>Jianfeng Zhang</t>
-  </si>
-  <si>
     <t>Mingzhen He</t>
   </si>
   <si>
-    <t>Chen Liang</t>
-  </si>
-  <si>
     <t>Zhaohui Zheng</t>
   </si>
   <si>
@@ -3928,12 +2854,6 @@
     <t>Lei Ke</t>
   </si>
   <si>
-    <t>Chuanguang Yang</t>
-  </si>
-  <si>
-    <t>Zhiyong Yang</t>
-  </si>
-  <si>
     <t>Hancheng Ye</t>
   </si>
   <si>
@@ -3997,9 +2917,6 @@
     <t>Depeng Li</t>
   </si>
   <si>
-    <t>Johannes Wagner</t>
-  </si>
-  <si>
     <t>Changde Du</t>
   </si>
   <si>
@@ -4039,9 +2956,6 @@
     <t>Yongshun Gong</t>
   </si>
   <si>
-    <t>Joshua Melton</t>
-  </si>
-  <si>
     <t>Zhaoxuan Zhang</t>
   </si>
   <si>
@@ -4063,9 +2977,6 @@
     <t>Liushuai Shi</t>
   </si>
   <si>
-    <t>Zikang Yuan</t>
-  </si>
-  <si>
     <t>Hezhen Hu</t>
   </si>
   <si>
@@ -4075,22 +2986,10 @@
     <t>Fan Lu</t>
   </si>
   <si>
-    <t>Jiaxu Miao</t>
-  </si>
-  <si>
     <t>Aoran Xiao</t>
   </si>
   <si>
-    <t>Liang Pan</t>
-  </si>
-  <si>
     <t>Xin Hong</t>
-  </si>
-  <si>
-    <t>Yanhui Li</t>
-  </si>
-  <si>
-    <t>Jianhong Pan</t>
   </si>
   <si>
     <t>Jin Huang</t>
@@ -4451,7 +3350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B699"/>
+  <dimension ref="A1:B512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4470,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>700</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4478,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>701</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4486,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4494,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>703</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4502,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>704</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4510,7 +3409,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>705</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4518,7 +3417,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>706</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4526,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>707</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4534,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>708</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4542,7 +3441,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>709</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4550,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>710</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4558,7 +3457,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>711</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4566,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>712</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4574,7 +3473,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>713</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4582,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>714</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4590,7 +3489,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>715</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4598,7 +3497,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>716</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4606,7 +3505,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>717</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4614,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>718</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4622,7 +3521,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>719</v>
+        <v>532</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4630,7 +3529,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>720</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4638,7 +3537,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>721</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4646,7 +3545,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>722</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4654,7 +3553,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>723</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4662,7 +3561,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>724</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4670,7 +3569,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>725</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4678,7 +3577,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>726</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4686,7 +3585,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>727</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4694,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>728</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4702,7 +3601,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>729</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4710,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>730</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4718,7 +3617,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>731</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4726,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>732</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4734,7 +3633,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>733</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4742,7 +3641,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>734</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4750,7 +3649,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>735</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4758,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>736</v>
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4766,7 +3665,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>737</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4774,7 +3673,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>738</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4782,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>739</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4790,7 +3689,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>740</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4798,7 +3697,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>741</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4806,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>742</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4814,7 +3713,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>743</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4822,7 +3721,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>744</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4830,7 +3729,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>745</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4838,7 +3737,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>746</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4846,7 +3745,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>747</v>
+        <v>560</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4854,7 +3753,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>748</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4862,7 +3761,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>749</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4870,7 +3769,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>750</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4878,7 +3777,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>751</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4886,7 +3785,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>752</v>
+        <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4894,7 +3793,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>753</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4902,7 +3801,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>754</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4910,7 +3809,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>755</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4918,7 +3817,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>756</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4926,7 +3825,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>757</v>
+        <v>570</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4934,7 +3833,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>758</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4942,7 +3841,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>759</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4950,7 +3849,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>760</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4958,7 +3857,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>761</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4966,7 +3865,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>762</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4974,7 +3873,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>763</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4982,7 +3881,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>764</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4990,7 +3889,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>765</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4998,7 +3897,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>766</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5006,7 +3905,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>767</v>
+        <v>580</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5014,7 +3913,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>768</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5022,7 +3921,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>769</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5030,7 +3929,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>770</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5038,7 +3937,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>771</v>
+        <v>584</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5046,7 +3945,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>772</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5054,7 +3953,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>773</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5062,7 +3961,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>774</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5070,7 +3969,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5078,7 +3977,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>776</v>
+        <v>589</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5086,7 +3985,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>777</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5094,7 +3993,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>778</v>
+        <v>591</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -5102,7 +4001,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>779</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -5110,7 +4009,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>780</v>
+        <v>593</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5118,7 +4017,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>781</v>
+        <v>594</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5126,7 +4025,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>782</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5134,7 +4033,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>783</v>
+        <v>596</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5142,7 +4041,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>784</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5150,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>785</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5158,7 +4057,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>786</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -5166,7 +4065,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>787</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5174,7 +4073,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>788</v>
+        <v>601</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -5182,7 +4081,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>789</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5190,7 +4089,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>790</v>
+        <v>603</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5198,7 +4097,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>791</v>
+        <v>604</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5206,7 +4105,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>792</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5214,7 +4113,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>793</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5222,7 +4121,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>794</v>
+        <v>607</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5230,7 +4129,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>795</v>
+        <v>608</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5238,7 +4137,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>796</v>
+        <v>609</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5246,7 +4145,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>797</v>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5254,7 +4153,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>798</v>
+        <v>611</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5262,7 +4161,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>799</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5270,7 +4169,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>800</v>
+        <v>613</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5278,7 +4177,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>801</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5286,7 +4185,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>802</v>
+        <v>615</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5294,7 +4193,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>803</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5302,7 +4201,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>804</v>
+        <v>617</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5310,7 +4209,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>805</v>
+        <v>618</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5318,7 +4217,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>806</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5326,7 +4225,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>807</v>
+        <v>620</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5334,7 +4233,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>808</v>
+        <v>621</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5342,7 +4241,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>809</v>
+        <v>622</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5350,7 +4249,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>810</v>
+        <v>623</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5358,7 +4257,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>811</v>
+        <v>624</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5366,7 +4265,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>812</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5374,7 +4273,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>813</v>
+        <v>626</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5382,7 +4281,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>814</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5390,7 +4289,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>815</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5398,7 +4297,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>816</v>
+        <v>629</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5406,7 +4305,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>817</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5414,7 +4313,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>818</v>
+        <v>631</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5422,7 +4321,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>819</v>
+        <v>632</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5430,7 +4329,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>820</v>
+        <v>633</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5438,7 +4337,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>821</v>
+        <v>634</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5446,7 +4345,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>822</v>
+        <v>635</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5454,7 +4353,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>823</v>
+        <v>636</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5462,7 +4361,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>824</v>
+        <v>637</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5470,7 +4369,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>825</v>
+        <v>638</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5478,7 +4377,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>826</v>
+        <v>639</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5486,7 +4385,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>827</v>
+        <v>640</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5494,7 +4393,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>828</v>
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5502,7 +4401,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>829</v>
+        <v>642</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5510,7 +4409,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>830</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5518,7 +4417,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>831</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5526,7 +4425,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>832</v>
+        <v>644</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5534,7 +4433,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>833</v>
+        <v>645</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5542,7 +4441,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>834</v>
+        <v>646</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5550,7 +4449,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>835</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5558,7 +4457,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>836</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5566,7 +4465,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>837</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5574,7 +4473,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>838</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5582,7 +4481,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>839</v>
+        <v>651</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5590,7 +4489,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>840</v>
+        <v>652</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5598,7 +4497,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>841</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5606,7 +4505,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>842</v>
+        <v>654</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5614,7 +4513,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>843</v>
+        <v>655</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5622,7 +4521,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>844</v>
+        <v>656</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5630,7 +4529,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>845</v>
+        <v>657</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5638,7 +4537,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>846</v>
+        <v>658</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5646,7 +4545,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>847</v>
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5654,7 +4553,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>848</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5662,7 +4561,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>849</v>
+        <v>661</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5670,7 +4569,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>850</v>
+        <v>662</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5678,7 +4577,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>851</v>
+        <v>663</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5686,7 +4585,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>852</v>
+        <v>664</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5694,7 +4593,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>853</v>
+        <v>665</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5702,7 +4601,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>854</v>
+        <v>666</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5710,7 +4609,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>855</v>
+        <v>667</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5718,7 +4617,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>856</v>
+        <v>668</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5726,7 +4625,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>857</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5734,7 +4633,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>858</v>
+        <v>670</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5742,7 +4641,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>859</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5750,7 +4649,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>860</v>
+        <v>671</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5758,7 +4657,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>861</v>
+        <v>672</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5766,7 +4665,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>862</v>
+        <v>673</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5774,7 +4673,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>863</v>
+        <v>674</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5782,7 +4681,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>864</v>
+        <v>675</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5790,7 +4689,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>865</v>
+        <v>676</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5798,7 +4697,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>866</v>
+        <v>677</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5806,7 +4705,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>867</v>
+        <v>678</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5814,7 +4713,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>868</v>
+        <v>679</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5822,7 +4721,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>869</v>
+        <v>680</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5830,7 +4729,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>870</v>
+        <v>596</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5838,7 +4737,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>871</v>
+        <v>681</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5846,7 +4745,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>872</v>
+        <v>682</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5854,7 +4753,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>873</v>
+        <v>683</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5862,7 +4761,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>874</v>
+        <v>684</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5870,7 +4769,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>875</v>
+        <v>685</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5878,7 +4777,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>876</v>
+        <v>686</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5886,7 +4785,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>877</v>
+        <v>687</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5894,7 +4793,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>878</v>
+        <v>688</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5902,7 +4801,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>879</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5910,7 +4809,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>880</v>
+        <v>690</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5918,7 +4817,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>881</v>
+        <v>691</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5926,7 +4825,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>882</v>
+        <v>692</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5934,7 +4833,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>883</v>
+        <v>693</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5942,7 +4841,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>884</v>
+        <v>694</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5950,7 +4849,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>885</v>
+        <v>695</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5958,7 +4857,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>886</v>
+        <v>696</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5966,7 +4865,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>887</v>
+        <v>697</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -5974,7 +4873,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>888</v>
+        <v>698</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -5982,7 +4881,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>889</v>
+        <v>699</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5990,7 +4889,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>890</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5998,7 +4897,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>769</v>
+        <v>701</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -6006,7 +4905,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>891</v>
+        <v>702</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -6014,7 +4913,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>892</v>
+        <v>703</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -6022,7 +4921,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>893</v>
+        <v>704</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -6030,7 +4929,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>894</v>
+        <v>705</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -6038,7 +4937,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>895</v>
+        <v>706</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -6046,7 +4945,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>896</v>
+        <v>707</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -6054,7 +4953,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>897</v>
+        <v>708</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -6062,7 +4961,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>898</v>
+        <v>709</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -6070,7 +4969,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>899</v>
+        <v>710</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -6078,7 +4977,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>900</v>
+        <v>711</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -6086,7 +4985,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>901</v>
+        <v>712</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -6094,7 +4993,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>902</v>
+        <v>713</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -6102,7 +5001,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>903</v>
+        <v>714</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -6110,7 +5009,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>904</v>
+        <v>715</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -6118,7 +5017,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>905</v>
+        <v>716</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -6126,7 +5025,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>906</v>
+        <v>717</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -6134,7 +5033,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>907</v>
+        <v>718</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -6142,7 +5041,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>908</v>
+        <v>719</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -6150,7 +5049,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>909</v>
+        <v>720</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -6158,7 +5057,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>910</v>
+        <v>721</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -6166,7 +5065,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>911</v>
+        <v>722</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -6174,7 +5073,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>912</v>
+        <v>723</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -6182,7 +5081,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>913</v>
+        <v>724</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -6190,7 +5089,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>914</v>
+        <v>725</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -6198,7 +5097,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>915</v>
+        <v>726</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -6206,7 +5105,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>916</v>
+        <v>727</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -6214,7 +5113,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>917</v>
+        <v>728</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -6222,7 +5121,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>918</v>
+        <v>729</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -6230,7 +5129,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>919</v>
+        <v>730</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -6238,7 +5137,7 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>920</v>
+        <v>731</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -6246,7 +5145,7 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>921</v>
+        <v>732</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -6254,7 +5153,7 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>922</v>
+        <v>733</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -6262,7 +5161,7 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>923</v>
+        <v>734</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -6270,7 +5169,7 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>924</v>
+        <v>735</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -6278,7 +5177,7 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>925</v>
+        <v>736</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -6286,7 +5185,7 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>807</v>
+        <v>682</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -6294,7 +5193,7 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>926</v>
+        <v>737</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -6302,7 +5201,7 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>927</v>
+        <v>738</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -6310,7 +5209,7 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>928</v>
+        <v>739</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -6318,7 +5217,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>929</v>
+        <v>740</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -6326,7 +5225,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>930</v>
+        <v>741</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -6334,7 +5233,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>931</v>
+        <v>742</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -6342,7 +5241,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>932</v>
+        <v>743</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -6350,7 +5249,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>933</v>
+        <v>744</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -6358,7 +5257,7 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>934</v>
+        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -6366,7 +5265,7 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>935</v>
+        <v>746</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -6374,7 +5273,7 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>936</v>
+        <v>747</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -6382,7 +5281,7 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>937</v>
+        <v>748</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -6390,7 +5289,7 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>938</v>
+        <v>749</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -6398,7 +5297,7 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>825</v>
+        <v>750</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -6406,7 +5305,7 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>939</v>
+        <v>751</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -6414,7 +5313,7 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -6422,7 +5321,7 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>940</v>
+        <v>753</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -6430,7 +5329,7 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>941</v>
+        <v>754</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -6438,7 +5337,7 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>942</v>
+        <v>755</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -6446,7 +5345,7 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>943</v>
+        <v>756</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -6454,7 +5353,7 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>944</v>
+        <v>757</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -6462,7 +5361,7 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>945</v>
+        <v>758</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -6470,7 +5369,7 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>946</v>
+        <v>759</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -6478,7 +5377,7 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>947</v>
+        <v>760</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -6486,7 +5385,7 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>948</v>
+        <v>761</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -6494,7 +5393,7 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>949</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -6502,7 +5401,7 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>950</v>
+        <v>514</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -6510,7 +5409,7 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>951</v>
+        <v>762</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -6518,7 +5417,7 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>952</v>
+        <v>763</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -6526,7 +5425,7 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>953</v>
+        <v>764</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -6534,7 +5433,7 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>954</v>
+        <v>541</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -6542,7 +5441,7 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>955</v>
+        <v>765</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -6550,7 +5449,7 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>956</v>
+        <v>766</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -6558,7 +5457,7 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>957</v>
+        <v>767</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -6566,7 +5465,7 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>958</v>
+        <v>768</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -6574,7 +5473,7 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>959</v>
+        <v>769</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -6582,7 +5481,7 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>960</v>
+        <v>770</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -6590,7 +5489,7 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>961</v>
+        <v>771</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -6598,7 +5497,7 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>962</v>
+        <v>772</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -6606,7 +5505,7 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>963</v>
+        <v>773</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -6614,7 +5513,7 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>964</v>
+        <v>774</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -6622,7 +5521,7 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>842</v>
+        <v>775</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -6630,7 +5529,7 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>965</v>
+        <v>684</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -6638,7 +5537,7 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>966</v>
+        <v>776</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -6646,7 +5545,7 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>967</v>
+        <v>777</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -6654,7 +5553,7 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>968</v>
+        <v>778</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -6662,7 +5561,7 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>969</v>
+        <v>779</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -6670,7 +5569,7 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>970</v>
+        <v>780</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -6678,7 +5577,7 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>971</v>
+        <v>781</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -6686,7 +5585,7 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>972</v>
+        <v>782</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -6694,7 +5593,7 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>973</v>
+        <v>783</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -6702,7 +5601,7 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>974</v>
+        <v>784</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -6710,7 +5609,7 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>975</v>
+        <v>785</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -6718,7 +5617,7 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>976</v>
+        <v>786</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -6726,7 +5625,7 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>977</v>
+        <v>787</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -6734,7 +5633,7 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>978</v>
+        <v>788</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -6742,7 +5641,7 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>979</v>
+        <v>789</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -6750,7 +5649,7 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>980</v>
+        <v>790</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -6758,7 +5657,7 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>981</v>
+        <v>791</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -6766,7 +5665,7 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>982</v>
+        <v>792</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -6774,7 +5673,7 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>983</v>
+        <v>793</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -6782,7 +5681,7 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>984</v>
+        <v>794</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -6790,7 +5689,7 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>985</v>
+        <v>795</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -6798,7 +5697,7 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>858</v>
+        <v>796</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -6806,7 +5705,7 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>986</v>
+        <v>797</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -6814,7 +5713,7 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>987</v>
+        <v>798</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -6822,7 +5721,7 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>988</v>
+        <v>799</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6830,7 +5729,7 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>989</v>
+        <v>800</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -6838,7 +5737,7 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>990</v>
+        <v>801</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -6846,7 +5745,7 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>991</v>
+        <v>802</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -6854,7 +5753,7 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>992</v>
+        <v>803</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -6862,7 +5761,7 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>993</v>
+        <v>804</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -6870,7 +5769,7 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>994</v>
+        <v>677</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -6878,7 +5777,7 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>995</v>
+        <v>805</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6886,7 +5785,7 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>996</v>
+        <v>806</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -6894,7 +5793,7 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>997</v>
+        <v>807</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -6902,7 +5801,7 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>998</v>
+        <v>808</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -6910,7 +5809,7 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>999</v>
+        <v>809</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -6918,7 +5817,7 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>1000</v>
+        <v>810</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -6926,7 +5825,7 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>1001</v>
+        <v>811</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -6934,7 +5833,7 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>1002</v>
+        <v>812</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6942,7 +5841,7 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>1003</v>
+        <v>813</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -6950,7 +5849,7 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>1004</v>
+        <v>663</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6958,7 +5857,7 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>1005</v>
+        <v>814</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -6966,7 +5865,7 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>1006</v>
+        <v>815</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6974,7 +5873,7 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>1007</v>
+        <v>816</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -6982,7 +5881,7 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>1008</v>
+        <v>817</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -6990,7 +5889,7 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>1009</v>
+        <v>818</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6998,7 +5897,7 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>1010</v>
+        <v>634</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -7006,7 +5905,7 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>1011</v>
+        <v>819</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -7014,7 +5913,7 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>1012</v>
+        <v>820</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -7022,7 +5921,7 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>1013</v>
+        <v>821</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -7030,7 +5929,7 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>1014</v>
+        <v>822</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -7038,7 +5937,7 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>1015</v>
+        <v>823</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -7046,7 +5945,7 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>1016</v>
+        <v>824</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -7054,7 +5953,7 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>1017</v>
+        <v>825</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -7062,7 +5961,7 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>1018</v>
+        <v>826</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -7070,7 +5969,7 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>1019</v>
+        <v>827</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -7078,7 +5977,7 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>1020</v>
+        <v>828</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -7086,7 +5985,7 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>1021</v>
+        <v>829</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -7094,7 +5993,7 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>1022</v>
+        <v>830</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -7102,7 +6001,7 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>1023</v>
+        <v>651</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -7110,7 +6009,7 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>940</v>
+        <v>831</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -7118,7 +6017,7 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>1024</v>
+        <v>832</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -7126,7 +6025,7 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>1025</v>
+        <v>833</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -7134,7 +6033,7 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>1026</v>
+        <v>643</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -7142,7 +6041,7 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>1027</v>
+        <v>834</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -7150,7 +6049,7 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>1028</v>
+        <v>835</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -7158,7 +6057,7 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>1029</v>
+        <v>836</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -7166,7 +6065,7 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>1030</v>
+        <v>837</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -7174,7 +6073,7 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>1031</v>
+        <v>838</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -7182,7 +6081,7 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>1032</v>
+        <v>628</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -7190,7 +6089,7 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>1033</v>
+        <v>839</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -7198,7 +6097,7 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>1034</v>
+        <v>821</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -7206,7 +6105,7 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>1035</v>
+        <v>840</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -7214,7 +6113,7 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>1036</v>
+        <v>841</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -7222,7 +6121,7 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>1037</v>
+        <v>842</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -7230,7 +6129,7 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>1038</v>
+        <v>843</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -7238,7 +6137,7 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>1039</v>
+        <v>844</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -7246,7 +6145,7 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>1040</v>
+        <v>845</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -7254,7 +6153,7 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>1041</v>
+        <v>846</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -7262,7 +6161,7 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>1042</v>
+        <v>847</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -7270,7 +6169,7 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>1043</v>
+        <v>848</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -7278,7 +6177,7 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>1044</v>
+        <v>849</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -7286,7 +6185,7 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>1045</v>
+        <v>850</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -7294,7 +6193,7 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>1046</v>
+        <v>851</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -7302,7 +6201,7 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>1047</v>
+        <v>852</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -7310,7 +6209,7 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>1048</v>
+        <v>853</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -7318,7 +6217,7 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>1049</v>
+        <v>854</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -7326,7 +6225,7 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>1050</v>
+        <v>855</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -7334,7 +6233,7 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>1051</v>
+        <v>856</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -7342,7 +6241,7 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>1052</v>
+        <v>857</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -7350,7 +6249,7 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>1053</v>
+        <v>858</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -7358,7 +6257,7 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>1054</v>
+        <v>859</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -7366,7 +6265,7 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>1055</v>
+        <v>860</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -7374,7 +6273,7 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>1056</v>
+        <v>861</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -7382,7 +6281,7 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>1057</v>
+        <v>862</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -7390,7 +6289,7 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>1058</v>
+        <v>863</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -7398,7 +6297,7 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>1059</v>
+        <v>864</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -7406,7 +6305,7 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>1060</v>
+        <v>865</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -7414,7 +6313,7 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>793</v>
+        <v>866</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -7422,7 +6321,7 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>702</v>
+        <v>867</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7430,7 +6329,7 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>1061</v>
+        <v>868</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -7438,7 +6337,7 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>1062</v>
+        <v>869</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -7446,7 +6345,7 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>1063</v>
+        <v>730</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -7454,7 +6353,7 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>1064</v>
+        <v>870</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -7462,7 +6361,7 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>1065</v>
+        <v>871</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -7470,7 +6369,7 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>745</v>
+        <v>872</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -7478,7 +6377,7 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>1066</v>
+        <v>873</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -7486,7 +6385,7 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>1067</v>
+        <v>874</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -7494,7 +6393,7 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>1068</v>
+        <v>875</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7502,7 +6401,7 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>1069</v>
+        <v>876</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -7510,7 +6409,7 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>1070</v>
+        <v>877</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7518,7 +6417,7 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>1071</v>
+        <v>878</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -7526,7 +6425,7 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>1072</v>
+        <v>663</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -7534,7 +6433,7 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>1073</v>
+        <v>879</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -7542,7 +6441,7 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>1074</v>
+        <v>880</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -7550,7 +6449,7 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>1075</v>
+        <v>585</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7558,7 +6457,7 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>1076</v>
+        <v>881</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -7566,7 +6465,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>1077</v>
+        <v>882</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -7574,7 +6473,7 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>1078</v>
+        <v>883</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -7582,7 +6481,7 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>943</v>
+        <v>884</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -7590,7 +6489,7 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>1079</v>
+        <v>885</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7598,7 +6497,7 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>1080</v>
+        <v>886</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -7606,7 +6505,7 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>1081</v>
+        <v>887</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -7614,7 +6513,7 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>1082</v>
+        <v>838</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -7622,7 +6521,7 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>1083</v>
+        <v>868</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -7630,7 +6529,7 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>1084</v>
+        <v>888</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -7638,7 +6537,7 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>1085</v>
+        <v>889</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -7646,7 +6545,7 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1086</v>
+        <v>621</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -7654,7 +6553,7 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>1087</v>
+        <v>890</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7662,7 +6561,7 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>1088</v>
+        <v>891</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -7670,7 +6569,7 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1089</v>
+        <v>892</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -7678,7 +6577,7 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1090</v>
+        <v>893</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -7686,7 +6585,7 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1091</v>
+        <v>894</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -7694,7 +6593,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1092</v>
+        <v>895</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7702,7 +6601,7 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1093</v>
+        <v>896</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -7710,7 +6609,7 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1094</v>
+        <v>897</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -7718,7 +6617,7 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>1095</v>
+        <v>898</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -7726,7 +6625,7 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1096</v>
+        <v>899</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7734,7 +6633,7 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1097</v>
+        <v>900</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -7742,7 +6641,7 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>1098</v>
+        <v>901</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7750,7 +6649,7 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>1099</v>
+        <v>902</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -7758,7 +6657,7 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1100</v>
+        <v>903</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -7766,7 +6665,7 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>1101</v>
+        <v>904</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -7774,7 +6673,7 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>1102</v>
+        <v>905</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7782,7 +6681,7 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>1103</v>
+        <v>906</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -7790,7 +6689,7 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>1104</v>
+        <v>907</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -7798,7 +6697,7 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>1105</v>
+        <v>908</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -7806,7 +6705,7 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>1106</v>
+        <v>909</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7814,7 +6713,7 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>1107</v>
+        <v>910</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -7822,7 +6721,7 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>1108</v>
+        <v>911</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -7830,7 +6729,7 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>1109</v>
+        <v>912</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -7838,7 +6737,7 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>1110</v>
+        <v>913</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -7846,7 +6745,7 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>1111</v>
+        <v>914</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -7854,7 +6753,7 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>1112</v>
+        <v>915</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -7862,7 +6761,7 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>1113</v>
+        <v>916</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -7870,7 +6769,7 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>1114</v>
+        <v>917</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -7878,7 +6777,7 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>1115</v>
+        <v>678</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7886,7 +6785,7 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>1116</v>
+        <v>918</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -7894,7 +6793,7 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>1117</v>
+        <v>919</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7902,7 +6801,7 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>1118</v>
+        <v>920</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -7910,7 +6809,7 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>1119</v>
+        <v>921</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -7918,7 +6817,7 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>1120</v>
+        <v>922</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -7926,7 +6825,7 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>1121</v>
+        <v>923</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -7934,7 +6833,7 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>1122</v>
+        <v>924</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7942,7 +6841,7 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1123</v>
+        <v>925</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -7950,7 +6849,7 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>1124</v>
+        <v>926</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -7958,7 +6857,7 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1125</v>
+        <v>927</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -7966,7 +6865,7 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1126</v>
+        <v>928</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7974,7 +6873,7 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1127</v>
+        <v>929</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -7982,7 +6881,7 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>1128</v>
+        <v>930</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7990,7 +6889,7 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1129</v>
+        <v>931</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -7998,7 +6897,7 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>1130</v>
+        <v>932</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8006,7 +6905,7 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>1131</v>
+        <v>933</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -8022,7 +6921,7 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>1132</v>
+        <v>935</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -8030,7 +6929,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>1133</v>
+        <v>936</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -8038,7 +6937,7 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>1134</v>
+        <v>937</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -8046,7 +6945,7 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1135</v>
+        <v>874</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -8054,7 +6953,7 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1136</v>
+        <v>938</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -8062,7 +6961,7 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1137</v>
+        <v>939</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -8070,7 +6969,7 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>1138</v>
+        <v>940</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -8078,7 +6977,7 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>1139</v>
+        <v>941</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -8086,7 +6985,7 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1140</v>
+        <v>942</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -8094,7 +6993,7 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1141</v>
+        <v>943</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -8102,7 +7001,7 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1142</v>
+        <v>944</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -8110,7 +7009,7 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1143</v>
+        <v>945</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -8118,7 +7017,7 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>914</v>
+        <v>946</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -8126,7 +7025,7 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>1144</v>
+        <v>947</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -8134,7 +7033,7 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>1145</v>
+        <v>948</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -8142,7 +7041,7 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>1146</v>
+        <v>949</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -8150,7 +7049,7 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1147</v>
+        <v>950</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -8158,7 +7057,7 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>1148</v>
+        <v>951</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -8166,7 +7065,7 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>879</v>
+        <v>952</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -8174,7 +7073,7 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1149</v>
+        <v>953</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -8182,7 +7081,7 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1150</v>
+        <v>954</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -8190,7 +7089,7 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>1151</v>
+        <v>684</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -8198,7 +7097,7 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1152</v>
+        <v>955</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -8206,7 +7105,7 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1153</v>
+        <v>799</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -8214,7 +7113,7 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1154</v>
+        <v>956</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -8222,7 +7121,7 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1155</v>
+        <v>957</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -8230,7 +7129,7 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>1156</v>
+        <v>958</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -8238,7 +7137,7 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>1157</v>
+        <v>959</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -8246,7 +7145,7 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1158</v>
+        <v>960</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -8254,7 +7153,7 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1159</v>
+        <v>961</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -8262,7 +7161,7 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1160</v>
+        <v>962</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -8270,7 +7169,7 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1161</v>
+        <v>845</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -8278,7 +7177,7 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>1162</v>
+        <v>963</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -8286,7 +7185,7 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>1163</v>
+        <v>964</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -8294,7 +7193,7 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>901</v>
+        <v>965</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -8302,7 +7201,7 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1164</v>
+        <v>746</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -8310,7 +7209,7 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>1165</v>
+        <v>966</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -8318,7 +7217,7 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1166</v>
+        <v>967</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -8326,7 +7225,7 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>891</v>
+        <v>968</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -8334,7 +7233,7 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1167</v>
+        <v>969</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -8342,7 +7241,7 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1168</v>
+        <v>970</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -8350,7 +7249,7 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>1169</v>
+        <v>971</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -8358,7 +7257,7 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>1170</v>
+        <v>972</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -8366,7 +7265,7 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>1171</v>
+        <v>601</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -8374,7 +7273,7 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1172</v>
+        <v>621</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -8382,7 +7281,7 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>870</v>
+        <v>973</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -8390,7 +7289,7 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1173</v>
+        <v>601</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -8398,7 +7297,7 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>1151</v>
+        <v>974</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -8406,7 +7305,7 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>1174</v>
+        <v>975</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -8414,7 +7313,7 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>1175</v>
+        <v>976</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -8422,7 +7321,7 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>1176</v>
+        <v>977</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -8430,7 +7329,7 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>1177</v>
+        <v>978</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -8438,7 +7337,7 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>1178</v>
+        <v>979</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -8446,7 +7345,7 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>1179</v>
+        <v>980</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -8454,7 +7353,7 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>1180</v>
+        <v>981</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -8462,7 +7361,7 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>1181</v>
+        <v>982</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -8470,7 +7369,7 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>1182</v>
+        <v>983</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -8478,7 +7377,7 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>1183</v>
+        <v>984</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -8486,7 +7385,7 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>1184</v>
+        <v>985</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -8494,7 +7393,7 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>1185</v>
+        <v>986</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -8502,7 +7401,7 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>1186</v>
+        <v>987</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -8510,7 +7409,7 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>1187</v>
+        <v>988</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -8518,7 +7417,7 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>1188</v>
+        <v>989</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -8526,7 +7425,7 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>1189</v>
+        <v>584</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -8534,7 +7433,7 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>1190</v>
+        <v>990</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -8542,7 +7441,7 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>1191</v>
+        <v>991</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -8550,1503 +7449,7 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2">
-      <c r="A513" t="s">
-        <v>513</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2">
-      <c r="A514" t="s">
-        <v>514</v>
-      </c>
-      <c r="B514" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2">
-      <c r="A515" t="s">
-        <v>515</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2">
-      <c r="A516" t="s">
-        <v>516</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2">
-      <c r="A517" t="s">
-        <v>517</v>
-      </c>
-      <c r="B517" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2">
-      <c r="A518" t="s">
-        <v>518</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2">
-      <c r="A519" t="s">
-        <v>519</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2">
-      <c r="A520" t="s">
-        <v>520</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2">
-      <c r="A521" t="s">
-        <v>521</v>
-      </c>
-      <c r="B521" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2">
-      <c r="A522" t="s">
-        <v>522</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2">
-      <c r="A523" t="s">
-        <v>523</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2">
-      <c r="A524" t="s">
-        <v>524</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2">
-      <c r="A525" t="s">
-        <v>525</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2">
-      <c r="A526" t="s">
-        <v>526</v>
-      </c>
-      <c r="B526" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2">
-      <c r="A527" t="s">
-        <v>527</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2">
-      <c r="A528" t="s">
-        <v>528</v>
-      </c>
-      <c r="B528" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2">
-      <c r="A529" t="s">
-        <v>529</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2">
-      <c r="A530" t="s">
-        <v>530</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2">
-      <c r="A531" t="s">
-        <v>531</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2">
-      <c r="A532" t="s">
-        <v>532</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2">
-      <c r="A533" t="s">
-        <v>533</v>
-      </c>
-      <c r="B533" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2">
-      <c r="A534" t="s">
-        <v>534</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2">
-      <c r="A535" t="s">
-        <v>535</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2">
-      <c r="A536" t="s">
-        <v>536</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2">
-      <c r="A537" t="s">
-        <v>537</v>
-      </c>
-      <c r="B537" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2">
-      <c r="A538" t="s">
-        <v>538</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2">
-      <c r="A539" t="s">
-        <v>539</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2">
-      <c r="A540" t="s">
-        <v>540</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2">
-      <c r="A541" t="s">
-        <v>541</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2">
-      <c r="A542" t="s">
-        <v>542</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2">
-      <c r="A543" t="s">
-        <v>543</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2">
-      <c r="A544" t="s">
-        <v>544</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2">
-      <c r="A545" t="s">
-        <v>545</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2">
-      <c r="A546" t="s">
-        <v>546</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2">
-      <c r="A547" t="s">
-        <v>547</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2">
-      <c r="A548" t="s">
-        <v>548</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2">
-      <c r="A549" t="s">
-        <v>549</v>
-      </c>
-      <c r="B549" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2">
-      <c r="A550" t="s">
-        <v>550</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2">
-      <c r="A551" t="s">
-        <v>551</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2">
-      <c r="A552" t="s">
-        <v>552</v>
-      </c>
-      <c r="B552" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2">
-      <c r="A553" t="s">
-        <v>553</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2">
-      <c r="A554" t="s">
-        <v>554</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2">
-      <c r="A555" t="s">
-        <v>555</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2">
-      <c r="A556" t="s">
-        <v>556</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2">
-      <c r="A557" t="s">
-        <v>557</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2">
-      <c r="A558" t="s">
-        <v>558</v>
-      </c>
-      <c r="B558" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2">
-      <c r="A559" t="s">
-        <v>559</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="A560" t="s">
-        <v>560</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2">
-      <c r="A561" t="s">
-        <v>561</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2">
-      <c r="A562" t="s">
-        <v>562</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2">
-      <c r="A563" t="s">
-        <v>563</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2">
-      <c r="A564" t="s">
-        <v>564</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2">
-      <c r="A565" t="s">
-        <v>565</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2">
-      <c r="A566" t="s">
-        <v>566</v>
-      </c>
-      <c r="B566" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" t="s">
-        <v>567</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2">
-      <c r="A568" t="s">
-        <v>568</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" t="s">
-        <v>569</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" t="s">
-        <v>570</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" t="s">
-        <v>571</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2">
-      <c r="A572" t="s">
-        <v>572</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2">
-      <c r="A573" t="s">
-        <v>573</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2">
-      <c r="A574" t="s">
-        <v>574</v>
-      </c>
-      <c r="B574" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2">
-      <c r="A575" t="s">
-        <v>575</v>
-      </c>
-      <c r="B575" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2">
-      <c r="A576" t="s">
-        <v>576</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2">
-      <c r="A577" t="s">
-        <v>577</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2">
-      <c r="A578" t="s">
-        <v>578</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2">
-      <c r="A579" t="s">
-        <v>579</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2">
-      <c r="A580" t="s">
-        <v>580</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2">
-      <c r="A581" t="s">
-        <v>581</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2">
-      <c r="A582" t="s">
-        <v>582</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2">
-      <c r="A583" t="s">
-        <v>583</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2">
-      <c r="A584" t="s">
-        <v>584</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2">
-      <c r="A585" t="s">
-        <v>585</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2">
-      <c r="A586" t="s">
-        <v>586</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2">
-      <c r="A587" t="s">
-        <v>587</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2">
-      <c r="A588" t="s">
-        <v>588</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2">
-      <c r="A589" t="s">
-        <v>589</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2">
-      <c r="A590" t="s">
-        <v>590</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2">
-      <c r="A591" t="s">
-        <v>591</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2">
-      <c r="A592" t="s">
-        <v>592</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2">
-      <c r="A593" t="s">
-        <v>593</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2">
-      <c r="A594" t="s">
-        <v>594</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2">
-      <c r="A595" t="s">
-        <v>595</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2">
-      <c r="A596" t="s">
-        <v>596</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2">
-      <c r="A597" t="s">
-        <v>597</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2">
-      <c r="A598" t="s">
-        <v>598</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2">
-      <c r="A599" t="s">
-        <v>599</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2">
-      <c r="A600" t="s">
-        <v>600</v>
-      </c>
-      <c r="B600" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2">
-      <c r="A601" t="s">
-        <v>601</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2">
-      <c r="A602" t="s">
-        <v>602</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2">
-      <c r="A603" t="s">
-        <v>603</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2">
-      <c r="A604" t="s">
-        <v>604</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2">
-      <c r="A605" t="s">
-        <v>605</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2">
-      <c r="A606" t="s">
-        <v>606</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2">
-      <c r="A607" t="s">
-        <v>607</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2">
-      <c r="A608" t="s">
-        <v>608</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2">
-      <c r="A609" t="s">
-        <v>609</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2">
-      <c r="A610" t="s">
-        <v>610</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2">
-      <c r="A611" t="s">
-        <v>611</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2">
-      <c r="A612" t="s">
-        <v>612</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2">
-      <c r="A613" t="s">
-        <v>613</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2">
-      <c r="A614" t="s">
-        <v>614</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2">
-      <c r="A615" t="s">
-        <v>615</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2">
-      <c r="A616" t="s">
-        <v>616</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2">
-      <c r="A617" t="s">
-        <v>617</v>
-      </c>
-      <c r="B617" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2">
-      <c r="A618" t="s">
-        <v>618</v>
-      </c>
-      <c r="B618" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2">
-      <c r="A619" t="s">
-        <v>619</v>
-      </c>
-      <c r="B619" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2">
-      <c r="A620" t="s">
-        <v>620</v>
-      </c>
-      <c r="B620" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2">
-      <c r="A621" t="s">
-        <v>621</v>
-      </c>
-      <c r="B621" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2">
-      <c r="A622" t="s">
-        <v>622</v>
-      </c>
-      <c r="B622" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2">
-      <c r="A623" t="s">
-        <v>623</v>
-      </c>
-      <c r="B623" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2">
-      <c r="A624" t="s">
-        <v>624</v>
-      </c>
-      <c r="B624" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2">
-      <c r="A625" t="s">
-        <v>625</v>
-      </c>
-      <c r="B625" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2">
-      <c r="A626" t="s">
-        <v>626</v>
-      </c>
-      <c r="B626" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2">
-      <c r="A627" t="s">
-        <v>627</v>
-      </c>
-      <c r="B627" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2">
-      <c r="A628" t="s">
-        <v>628</v>
-      </c>
-      <c r="B628" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2">
-      <c r="A629" t="s">
-        <v>629</v>
-      </c>
-      <c r="B629" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2">
-      <c r="A630" t="s">
-        <v>630</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2">
-      <c r="A631" t="s">
-        <v>631</v>
-      </c>
-      <c r="B631" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2">
-      <c r="A632" t="s">
-        <v>632</v>
-      </c>
-      <c r="B632" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2">
-      <c r="A633" t="s">
-        <v>633</v>
-      </c>
-      <c r="B633" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2">
-      <c r="A634" t="s">
-        <v>634</v>
-      </c>
-      <c r="B634" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2">
-      <c r="A635" t="s">
-        <v>635</v>
-      </c>
-      <c r="B635" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2">
-      <c r="A636" t="s">
-        <v>636</v>
-      </c>
-      <c r="B636" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2">
-      <c r="A637" t="s">
-        <v>637</v>
-      </c>
-      <c r="B637" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2">
-      <c r="A638" t="s">
-        <v>638</v>
-      </c>
-      <c r="B638" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2">
-      <c r="A639" t="s">
-        <v>639</v>
-      </c>
-      <c r="B639" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2">
-      <c r="A640" t="s">
-        <v>640</v>
-      </c>
-      <c r="B640" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2">
-      <c r="A641" t="s">
-        <v>641</v>
-      </c>
-      <c r="B641" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2">
-      <c r="A642" t="s">
-        <v>642</v>
-      </c>
-      <c r="B642" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2">
-      <c r="A643" t="s">
-        <v>643</v>
-      </c>
-      <c r="B643" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2">
-      <c r="A644" t="s">
-        <v>644</v>
-      </c>
-      <c r="B644" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2">
-      <c r="A645" t="s">
-        <v>645</v>
-      </c>
-      <c r="B645" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2">
-      <c r="A646" t="s">
-        <v>646</v>
-      </c>
-      <c r="B646" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2">
-      <c r="A647" t="s">
-        <v>647</v>
-      </c>
-      <c r="B647" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2">
-      <c r="A648" t="s">
-        <v>648</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2">
-      <c r="A649" t="s">
-        <v>649</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2">
-      <c r="A650" t="s">
-        <v>650</v>
-      </c>
-      <c r="B650" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2">
-      <c r="A651" t="s">
-        <v>651</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2">
-      <c r="A652" t="s">
-        <v>652</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2">
-      <c r="A653" t="s">
-        <v>653</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2">
-      <c r="A654" t="s">
-        <v>654</v>
-      </c>
-      <c r="B654" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2">
-      <c r="A655" t="s">
-        <v>655</v>
-      </c>
-      <c r="B655" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2">
-      <c r="A656" t="s">
-        <v>656</v>
-      </c>
-      <c r="B656" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2">
-      <c r="A657" t="s">
-        <v>657</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2">
-      <c r="A658" t="s">
-        <v>658</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2">
-      <c r="A659" t="s">
-        <v>659</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2">
-      <c r="A660" t="s">
-        <v>660</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2">
-      <c r="A661" t="s">
-        <v>661</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2">
-      <c r="A662" t="s">
-        <v>662</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" t="s">
-        <v>663</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2">
-      <c r="A664" t="s">
-        <v>664</v>
-      </c>
-      <c r="B664" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2">
-      <c r="A665" t="s">
-        <v>665</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2">
-      <c r="A666" t="s">
-        <v>666</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2">
-      <c r="A667" t="s">
-        <v>667</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2">
-      <c r="A668" t="s">
-        <v>668</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2">
-      <c r="A669" t="s">
-        <v>669</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2">
-      <c r="A670" t="s">
-        <v>670</v>
-      </c>
-      <c r="B670" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2">
-      <c r="A671" t="s">
-        <v>671</v>
-      </c>
-      <c r="B671" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2">
-      <c r="A672" t="s">
-        <v>672</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2">
-      <c r="A673" t="s">
-        <v>673</v>
-      </c>
-      <c r="B673" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2">
-      <c r="A674" t="s">
-        <v>674</v>
-      </c>
-      <c r="B674" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2">
-      <c r="A675" t="s">
-        <v>675</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2">
-      <c r="A676" t="s">
-        <v>676</v>
-      </c>
-      <c r="B676" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2">
-      <c r="A677" t="s">
-        <v>677</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2">
-      <c r="A678" t="s">
-        <v>678</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2">
-      <c r="A679" t="s">
-        <v>679</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2">
-      <c r="A680" t="s">
-        <v>680</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2">
-      <c r="A681" t="s">
-        <v>681</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2">
-      <c r="A682" t="s">
-        <v>682</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2">
-      <c r="A683" t="s">
-        <v>683</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2">
-      <c r="A684" t="s">
-        <v>684</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2">
-      <c r="A685" t="s">
-        <v>685</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2">
-      <c r="A686" t="s">
-        <v>686</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2">
-      <c r="A687" t="s">
-        <v>687</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2">
-      <c r="A688" t="s">
-        <v>688</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2">
-      <c r="A689" t="s">
-        <v>689</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2">
-      <c r="A690" t="s">
-        <v>690</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2">
-      <c r="A691" t="s">
-        <v>691</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2">
-      <c r="A692" t="s">
-        <v>692</v>
-      </c>
-      <c r="B692" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2">
-      <c r="A693" t="s">
-        <v>693</v>
-      </c>
-      <c r="B693" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2">
-      <c r="A694" t="s">
-        <v>694</v>
-      </c>
-      <c r="B694" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2">
-      <c r="A695" t="s">
-        <v>695</v>
-      </c>
-      <c r="B695" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2">
-      <c r="A696" t="s">
-        <v>696</v>
-      </c>
-      <c r="B696" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2">
-      <c r="A697" t="s">
-        <v>697</v>
-      </c>
-      <c r="B697" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2">
-      <c r="A698" t="s">
-        <v>698</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2">
-      <c r="A699" t="s">
-        <v>699</v>
-      </c>
-      <c r="B699" t="s">
-        <v>1359</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_titles_and_authors.xlsx
+++ b/filtered_titles_and_authors.xlsx
@@ -16,10 +16,1450 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="993">
   <si>
+    <t>First Author</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>First Author</t>
+    <t>Xiaojun Chang</t>
+  </si>
+  <si>
+    <t>Risheng Liu</t>
+  </si>
+  <si>
+    <t>Xinyi Wu</t>
+  </si>
+  <si>
+    <t>Qi Cai</t>
+  </si>
+  <si>
+    <t>Dengxin Dai</t>
+  </si>
+  <si>
+    <t>Ming-Kun Xie</t>
+  </si>
+  <si>
+    <t>Shenfei Pei</t>
+  </si>
+  <si>
+    <t>Tao Zhou</t>
+  </si>
+  <si>
+    <t>Hongyuan Yu</t>
+  </si>
+  <si>
+    <t>Zhongyan Zhang</t>
+  </si>
+  <si>
+    <t>Peng Xu</t>
+  </si>
+  <si>
+    <t>Chenyang Lei</t>
+  </si>
+  <si>
+    <t>Zhenyu Guan</t>
+  </si>
+  <si>
+    <t>Xin Wang</t>
+  </si>
+  <si>
+    <t>Yingqian Wang</t>
+  </si>
+  <si>
+    <t>Yu Yao</t>
+  </si>
+  <si>
+    <t>Haojie Zhao</t>
+  </si>
+  <si>
+    <t>Hang Yu</t>
+  </si>
+  <si>
+    <t>Haoxin Li</t>
+  </si>
+  <si>
+    <t>Xudong Shen</t>
+  </si>
+  <si>
+    <t>Yuval Nirkin</t>
+  </si>
+  <si>
+    <t>Shiyu Hu</t>
+  </si>
+  <si>
+    <t>Jae Shin Yoon</t>
+  </si>
+  <si>
+    <t>Kunpeng Li</t>
+  </si>
+  <si>
+    <t>Zhenguang Liu</t>
+  </si>
+  <si>
+    <t>Tehrim Yoon</t>
+  </si>
+  <si>
+    <t>Zhen Peng</t>
+  </si>
+  <si>
+    <t>Qi Wang</t>
+  </si>
+  <si>
+    <t>Hao Tang</t>
+  </si>
+  <si>
+    <t>Shasha Guo</t>
+  </si>
+  <si>
+    <t>Asif Salim</t>
+  </si>
+  <si>
+    <t>Xin Wen</t>
+  </si>
+  <si>
+    <t>Ran Yi</t>
+  </si>
+  <si>
+    <t>Xiaoming Deng</t>
+  </si>
+  <si>
+    <t>Haoran Zhou</t>
+  </si>
+  <si>
+    <t>Hao Peng</t>
+  </si>
+  <si>
+    <t>Hongteng Xu</t>
+  </si>
+  <si>
+    <t>Shilong Bao</t>
+  </si>
+  <si>
+    <t>Dafeng Wang</t>
+  </si>
+  <si>
+    <t>Zhen Fang</t>
+  </si>
+  <si>
+    <t>Shuangjun Liu</t>
+  </si>
+  <si>
+    <t>Yujie Wang</t>
+  </si>
+  <si>
+    <t>Yu Wu</t>
+  </si>
+  <si>
+    <t>Zhaokang Chen</t>
+  </si>
+  <si>
+    <t>Xinyi Xu</t>
+  </si>
+  <si>
+    <t>Yunus Can Bilge</t>
+  </si>
+  <si>
+    <t>Lin Zhu</t>
+  </si>
+  <si>
+    <t>Wenjing Wang</t>
+  </si>
+  <si>
+    <t>Zhen Cui</t>
+  </si>
+  <si>
+    <t>Jinwang Wang</t>
+  </si>
+  <si>
+    <t>Shi Qiu</t>
+  </si>
+  <si>
+    <t>Qibin Hou</t>
+  </si>
+  <si>
+    <t>Hamid Laga</t>
+  </si>
+  <si>
+    <t>Bin Chen</t>
+  </si>
+  <si>
+    <t>Shangqi Gao</t>
+  </si>
+  <si>
+    <t>Renjie Wan</t>
+  </si>
+  <si>
+    <t>Yongqi Zhang</t>
+  </si>
+  <si>
+    <t>Yi-Fan Song</t>
+  </si>
+  <si>
+    <t>Yehao Li</t>
+  </si>
+  <si>
+    <t>Guo Pu</t>
+  </si>
+  <si>
+    <t>Zhi Gao</t>
+  </si>
+  <si>
+    <t>Zhaoqi Su</t>
+  </si>
+  <si>
+    <t>Anees Kazi</t>
+  </si>
+  <si>
+    <t>Yu Cheng</t>
+  </si>
+  <si>
+    <t>Jie Wang</t>
+  </si>
+  <si>
+    <t>Shaojing Fan</t>
+  </si>
+  <si>
+    <t>Zhangjie Cao</t>
+  </si>
+  <si>
+    <t>Jieting Wang</t>
+  </si>
+  <si>
+    <t>Han-Jia Ye</t>
+  </si>
+  <si>
+    <t>Yubo Zhang</t>
+  </si>
+  <si>
+    <t>Xuhui Fan</t>
+  </si>
+  <si>
+    <t>Qin Lu</t>
+  </si>
+  <si>
+    <t>Ziwei Wang</t>
+  </si>
+  <si>
+    <t>Dong Qian</t>
+  </si>
+  <si>
+    <t>Chuanchen Luo</t>
+  </si>
+  <si>
+    <t>Xuelong Li</t>
+  </si>
+  <si>
+    <t>Hou-Ning Hu</t>
+  </si>
+  <si>
+    <t>Yu-Hui Wen</t>
+  </si>
+  <si>
+    <t>Xi Zhang</t>
+  </si>
+  <si>
+    <t>Jiahui Huang</t>
+  </si>
+  <si>
+    <t>Fuyuan Xiao</t>
+  </si>
+  <si>
+    <t>Ziyu Wan</t>
+  </si>
+  <si>
+    <t>Jiuniu Wang</t>
+  </si>
+  <si>
+    <t>Wei Wang</t>
+  </si>
+  <si>
+    <t>Peisong Wang</t>
+  </si>
+  <si>
+    <t>Youwei Lyu</t>
+  </si>
+  <si>
+    <t>Chao Wen</t>
+  </si>
+  <si>
+    <t>Hehe Fan</t>
+  </si>
+  <si>
+    <t>Yongming Rao</t>
+  </si>
+  <si>
+    <t>Yunbo Wang</t>
+  </si>
+  <si>
+    <t>Yucheng Shi</t>
+  </si>
+  <si>
+    <t>Shengxi Li</t>
+  </si>
+  <si>
+    <t>Ziheng Cheng</t>
+  </si>
+  <si>
+    <t>Hiroki Kato</t>
+  </si>
+  <si>
+    <t>Deng-Ping Fan</t>
+  </si>
+  <si>
+    <t>Yukang Chen</t>
+  </si>
+  <si>
+    <t>Yaochen Xie</t>
+  </si>
+  <si>
+    <t>Weitao Wan</t>
+  </si>
+  <si>
+    <t>Weiyang Liu</t>
+  </si>
+  <si>
+    <t>Di Lin</t>
+  </si>
+  <si>
+    <t>Rui Dai</t>
+  </si>
+  <si>
+    <t>Zongbo Han</t>
+  </si>
+  <si>
+    <t>Bilian Chen</t>
+  </si>
+  <si>
+    <t>Yifu Zhang</t>
+  </si>
+  <si>
+    <t>Zheng Zhu</t>
+  </si>
+  <si>
+    <t>Yalan Qin</t>
+  </si>
+  <si>
+    <t>Yu Wang</t>
+  </si>
+  <si>
+    <t>Yujiao Shi</t>
+  </si>
+  <si>
+    <t>Xingxing Wei</t>
+  </si>
+  <si>
+    <t>Yiwen Guo</t>
+  </si>
+  <si>
+    <t>Shi-Xue Zhang</t>
+  </si>
+  <si>
+    <t>Changqin Huang</t>
+  </si>
+  <si>
+    <t>Jingting Li</t>
+  </si>
+  <si>
+    <t>Chunfeng Song</t>
+  </si>
+  <si>
+    <t>Chen Gong</t>
+  </si>
+  <si>
+    <t>Shuaicheng Liu</t>
+  </si>
+  <si>
+    <t>Weixia Zhang</t>
+  </si>
+  <si>
+    <t>Xinyue Wang</t>
+  </si>
+  <si>
+    <t>Haolan Chen</t>
+  </si>
+  <si>
+    <t>Zhuming Zhang</t>
+  </si>
+  <si>
+    <t>Siqi Wang</t>
+  </si>
+  <si>
+    <t>Shanghua Gao</t>
+  </si>
+  <si>
+    <t>Xuejing Liu</t>
+  </si>
+  <si>
+    <t>Tao Zhao</t>
+  </si>
+  <si>
+    <t>Zhuang Liu</t>
+  </si>
+  <si>
+    <t>Xiaobo Xia</t>
+  </si>
+  <si>
+    <t>Rui Tao</t>
+  </si>
+  <si>
+    <t>Weiming Hu</t>
+  </si>
+  <si>
+    <t>Yifan Zhao</t>
+  </si>
+  <si>
+    <t>Weihao Xia</t>
+  </si>
+  <si>
+    <t>Yue Gao</t>
+  </si>
+  <si>
+    <t>Zehua Sun</t>
+  </si>
+  <si>
+    <t>Ziyang Zheng</t>
+  </si>
+  <si>
+    <t>Hanrui Wu</t>
+  </si>
+  <si>
+    <t>Chenlei Lv</t>
+  </si>
+  <si>
+    <t>Junchen Zhu</t>
+  </si>
+  <si>
+    <t>Haiyang Mei</t>
+  </si>
+  <si>
+    <t>Mengmeng Wang</t>
+  </si>
+  <si>
+    <t>Hao Wang</t>
+  </si>
+  <si>
+    <t>Yufan Liu</t>
+  </si>
+  <si>
+    <t>Jipeng Guo</t>
+  </si>
+  <si>
+    <t>Tao Li</t>
+  </si>
+  <si>
+    <t>Jinhua Zhu</t>
+  </si>
+  <si>
+    <t>Haifeng Xia</t>
+  </si>
+  <si>
+    <t>Huaibo Huang</t>
+  </si>
+  <si>
+    <t>Quanyi Li</t>
+  </si>
+  <si>
+    <t>Zhenshan Bing</t>
+  </si>
+  <si>
+    <t>Xin Tan</t>
+  </si>
+  <si>
+    <t>Jun Shu</t>
+  </si>
+  <si>
+    <t>Chengbo Dong</t>
+  </si>
+  <si>
+    <t>Yue Song</t>
+  </si>
+  <si>
+    <t>Berkan Dulek</t>
+  </si>
+  <si>
+    <t>Lingbo Liu</t>
+  </si>
+  <si>
+    <t>Yaoyao Zhong</t>
+  </si>
+  <si>
+    <t>Xingyu Xie</t>
+  </si>
+  <si>
+    <t>Haichuan Ma</t>
+  </si>
+  <si>
+    <t>Chaoqi Chen</t>
+  </si>
+  <si>
+    <t>Jiequan Cui</t>
+  </si>
+  <si>
+    <t>Mingchen Zhuge</t>
+  </si>
+  <si>
+    <t>Haohang Xu</t>
+  </si>
+  <si>
+    <t>Haitian Zheng</t>
+  </si>
+  <si>
+    <t>Jiale Cao</t>
+  </si>
+  <si>
+    <t>Yaojie Liu</t>
+  </si>
+  <si>
+    <t>Lingling Zhang</t>
+  </si>
+  <si>
+    <t>Pengfei Wei</t>
+  </si>
+  <si>
+    <t>Peng Hu</t>
+  </si>
+  <si>
+    <t>Haopeng Li</t>
+  </si>
+  <si>
+    <t>Mingjie Li</t>
+  </si>
+  <si>
+    <t>Sheng Ao</t>
+  </si>
+  <si>
+    <t>Rui Zhang</t>
+  </si>
+  <si>
+    <t>Amos Golan</t>
+  </si>
+  <si>
+    <t>Mingbao Lin</t>
+  </si>
+  <si>
+    <t>Liping Deng</t>
+  </si>
+  <si>
+    <t>Farhad Pourpanah</t>
+  </si>
+  <si>
+    <t>Ke Ma</t>
+  </si>
+  <si>
+    <t>Hui Shuai</t>
+  </si>
+  <si>
+    <t>Jiayong Peng</t>
+  </si>
+  <si>
+    <t>Hongzhi Huang</t>
+  </si>
+  <si>
+    <t>Dong Li</t>
+  </si>
+  <si>
+    <t>Shiqi Chen</t>
+  </si>
+  <si>
+    <t>Pan Du</t>
+  </si>
+  <si>
+    <t>Hao Zhou</t>
+  </si>
+  <si>
+    <t>Tao Sun</t>
+  </si>
+  <si>
+    <t>Elahe Vahdani</t>
+  </si>
+  <si>
+    <t>Xuguang Duan</t>
+  </si>
+  <si>
+    <t>Kenji Enomoto</t>
+  </si>
+  <si>
+    <t>Jiahuan Zhou</t>
+  </si>
+  <si>
+    <t>André Greiner-Petter</t>
+  </si>
+  <si>
+    <t>Yilun Chen</t>
+  </si>
+  <si>
+    <t>Changlin Li</t>
+  </si>
+  <si>
+    <t>Yijie Lin</t>
+  </si>
+  <si>
+    <t>Longguang Wang</t>
+  </si>
+  <si>
+    <t>Shaofei Qin</t>
+  </si>
+  <si>
+    <t>Qi Xie</t>
+  </si>
+  <si>
+    <t>Zhihao Hu</t>
+  </si>
+  <si>
+    <t>Chaojie Wang</t>
+  </si>
+  <si>
+    <t>Gao Huang</t>
+  </si>
+  <si>
+    <t>Xikun Zhang</t>
+  </si>
+  <si>
+    <t>Gong Cheng</t>
+  </si>
+  <si>
+    <t>Junfeng Jing</t>
+  </si>
+  <si>
+    <t>Daizong Liu</t>
+  </si>
+  <si>
+    <t>Shengsheng Qian</t>
+  </si>
+  <si>
+    <t>Mengke Li</t>
+  </si>
+  <si>
+    <t>Xiaotong Luo</t>
+  </si>
+  <si>
+    <t>Kwanseok Oh</t>
+  </si>
+  <si>
+    <t>Feiping Nie</t>
+  </si>
+  <si>
+    <t>Zhiqin Chen</t>
+  </si>
+  <si>
+    <t>Yifei Shi</t>
+  </si>
+  <si>
+    <t>Guangtao Nie</t>
+  </si>
+  <si>
+    <t>Qingshan Xu</t>
+  </si>
+  <si>
+    <t>Xingyu Wu</t>
+  </si>
+  <si>
+    <t>Nan Zhang</t>
+  </si>
+  <si>
+    <t>Buzhen Huang</t>
+  </si>
+  <si>
+    <t>Zitai Wang</t>
+  </si>
+  <si>
+    <t>Shanyan Guan</t>
+  </si>
+  <si>
+    <t>Quanshi Zhang</t>
+  </si>
+  <si>
+    <t>Zedu Chen</t>
+  </si>
+  <si>
+    <t>Xinwang Liu</t>
+  </si>
+  <si>
+    <t>Wei Xia</t>
+  </si>
+  <si>
+    <t>Chong Mou</t>
+  </si>
+  <si>
+    <t>Shangzhe Wu</t>
+  </si>
+  <si>
+    <t>Yiheng Liu</t>
+  </si>
+  <si>
+    <t>Lumin Xu</t>
+  </si>
+  <si>
+    <t>Zhengxin Li</t>
+  </si>
+  <si>
+    <t>Il Yong Chun</t>
+  </si>
+  <si>
+    <t>Shuren Qi</t>
+  </si>
+  <si>
+    <t>Xiaojie Guo</t>
+  </si>
+  <si>
+    <t>Hongbin Lin</t>
+  </si>
+  <si>
+    <t>Wei Dong</t>
+  </si>
+  <si>
+    <t>Meng-Hao Guo</t>
+  </si>
+  <si>
+    <t>Fu-En Wang</t>
+  </si>
+  <si>
+    <t>Anran Liu</t>
+  </si>
+  <si>
+    <t>Yikai Wang</t>
+  </si>
+  <si>
+    <t>Xiao Wang</t>
+  </si>
+  <si>
+    <t>Difei Gao</t>
+  </si>
+  <si>
+    <t>Yohai Reani</t>
+  </si>
+  <si>
+    <t>Zitong Yu</t>
+  </si>
+  <si>
+    <t>Chi Zhang</t>
+  </si>
+  <si>
+    <t>Wenbin Li</t>
+  </si>
+  <si>
+    <t>Xin Qiao</t>
+  </si>
+  <si>
+    <t>Hexiang Hu</t>
+  </si>
+  <si>
+    <t>Tong He</t>
+  </si>
+  <si>
+    <t>Li Zhang</t>
+  </si>
+  <si>
+    <t>Fei Ye</t>
+  </si>
+  <si>
+    <t>Guangming Wang</t>
+  </si>
+  <si>
+    <t>Donglin Di</t>
+  </si>
+  <si>
+    <t>Mingzhu Zhu</t>
+  </si>
+  <si>
+    <t>Dihan Zheng</t>
+  </si>
+  <si>
+    <t>Xiaoming Li</t>
+  </si>
+  <si>
+    <t>Zhenchao Jin</t>
+  </si>
+  <si>
+    <t>Junsong Fan</t>
+  </si>
+  <si>
+    <t>Fuping Wu</t>
+  </si>
+  <si>
+    <t>Lei Jiao</t>
+  </si>
+  <si>
+    <t>Jinjing Shi</t>
+  </si>
+  <si>
+    <t>Guilin Liu</t>
+  </si>
+  <si>
+    <t>Xinming Wang</t>
+  </si>
+  <si>
+    <t>Jie Zhao</t>
+  </si>
+  <si>
+    <t>Kexue Fu</t>
+  </si>
+  <si>
+    <t>Zhuo Su</t>
+  </si>
+  <si>
+    <t>Bin Fan</t>
+  </si>
+  <si>
+    <t>Hui Zhang</t>
+  </si>
+  <si>
+    <t>Zhentao Tan</t>
+  </si>
+  <si>
+    <t>Jia Li</t>
+  </si>
+  <si>
+    <t>Shengtian Sang</t>
+  </si>
+  <si>
+    <t>Junyi Guan</t>
+  </si>
+  <si>
+    <t>Takayuki Hara</t>
+  </si>
+  <si>
+    <t>Xiaoqin Zhang</t>
+  </si>
+  <si>
+    <t>Fang Bai</t>
+  </si>
+  <si>
+    <t>T. M. Feroz Ali</t>
+  </si>
+  <si>
+    <t>Zhongyi Han</t>
+  </si>
+  <si>
+    <t>Wei Yin</t>
+  </si>
+  <si>
+    <t>Ning Xu</t>
+  </si>
+  <si>
+    <t>Xiaohan Wang</t>
+  </si>
+  <si>
+    <t>Huangyue Yu</t>
+  </si>
+  <si>
+    <t>Shijie Li</t>
+  </si>
+  <si>
+    <t>Zhaobo Qi</t>
+  </si>
+  <si>
+    <t>Hae-Gon Jeon</t>
+  </si>
+  <si>
+    <t>Haonan Luo</t>
+  </si>
+  <si>
+    <t>Song Bai</t>
+  </si>
+  <si>
+    <t>Zhengyang Wang</t>
+  </si>
+  <si>
+    <t>Yue Cao</t>
+  </si>
+  <si>
+    <t>Zilong Huang</t>
+  </si>
+  <si>
+    <t>Yecheng Lyu</t>
+  </si>
+  <si>
+    <t>Guohao Li</t>
+  </si>
+  <si>
+    <t>Minsi Wang</t>
+  </si>
+  <si>
+    <t>Zhao-Min Chen</t>
+  </si>
+  <si>
+    <t>Runzhong Wang</t>
+  </si>
+  <si>
+    <t>Yiming Gao</t>
+  </si>
+  <si>
+    <t>Yifan Liu</t>
+  </si>
+  <si>
+    <t>Mojtaba Nayyeri</t>
+  </si>
+  <si>
+    <t>Zhoumin Lu</t>
+  </si>
+  <si>
+    <t>Shancheng Fang</t>
+  </si>
+  <si>
+    <t>Haoshu Fang</t>
+  </si>
+  <si>
+    <t>Seokju Cho</t>
+  </si>
+  <si>
+    <t>Shichao Kan</t>
+  </si>
+  <si>
+    <t>Jinxing Zhou</t>
+  </si>
+  <si>
+    <t>Hanchi Huang</t>
+  </si>
+  <si>
+    <t>Wei Chen</t>
+  </si>
+  <si>
+    <t>Dixin Luo</t>
+  </si>
+  <si>
+    <t>Chuchu Han</t>
+  </si>
+  <si>
+    <t>Yifan Jiao</t>
+  </si>
+  <si>
+    <t>Andrés F. Duque</t>
+  </si>
+  <si>
+    <t>Yinghao Xu</t>
+  </si>
+  <si>
+    <t>Xiaodong Jia</t>
+  </si>
+  <si>
+    <t>Aditya Chattopadhyay</t>
+  </si>
+  <si>
+    <t>Junqing Huang</t>
+  </si>
+  <si>
+    <t>Fei Zhu</t>
+  </si>
+  <si>
+    <t>Hao Chen</t>
+  </si>
+  <si>
+    <t>Zhizhong Huang</t>
+  </si>
+  <si>
+    <t>Xin Wei</t>
+  </si>
+  <si>
+    <t>Jielei Chu</t>
+  </si>
+  <si>
+    <t>Zhenyuan Ning</t>
+  </si>
+  <si>
+    <t>Moritz Böhle</t>
+  </si>
+  <si>
+    <t>Chengming Xu</t>
+  </si>
+  <si>
+    <t>Guang Feng</t>
+  </si>
+  <si>
+    <t>Qianqian Xu</t>
+  </si>
+  <si>
+    <t>Changxin Huang</t>
+  </si>
+  <si>
+    <t>Shuquan Ye</t>
+  </si>
+  <si>
+    <t>Zehong Shen</t>
+  </si>
+  <si>
+    <t>Cheng Wang</t>
+  </si>
+  <si>
+    <t>Hai Wan</t>
+  </si>
+  <si>
+    <t>Zhi Chen</t>
+  </si>
+  <si>
+    <t>Tom J. Viering</t>
+  </si>
+  <si>
+    <t>Yihong Xu</t>
+  </si>
+  <si>
+    <t>Fadime Sener</t>
+  </si>
+  <si>
+    <t>Qianyu Zhou</t>
+  </si>
+  <si>
+    <t>Henghui Ding</t>
+  </si>
+  <si>
+    <t>Cencheng Shen</t>
+  </si>
+  <si>
+    <t>Yin Li</t>
+  </si>
+  <si>
+    <t>Anjing Guo</t>
+  </si>
+  <si>
+    <t>Xuefei Ning</t>
+  </si>
+  <si>
+    <t>Chulun Zhou</t>
+  </si>
+  <si>
+    <t>Wei Gao</t>
+  </si>
+  <si>
+    <t>Hong-Yu Zhou</t>
+  </si>
+  <si>
+    <t>Xiuwen Gong</t>
+  </si>
+  <si>
+    <t>Xingping Dong</t>
+  </si>
+  <si>
+    <t>Xiong Zhou</t>
+  </si>
+  <si>
+    <t>Changming Zhao</t>
+  </si>
+  <si>
+    <t>Yajing Zheng</t>
+  </si>
+  <si>
+    <t>Xin Ding</t>
+  </si>
+  <si>
+    <t>Juhong Min</t>
+  </si>
+  <si>
+    <t>Yujing Wang</t>
+  </si>
+  <si>
+    <t>Ziyue Zhu</t>
+  </si>
+  <si>
+    <t>Zhu Sun</t>
+  </si>
+  <si>
+    <t>Junjie Hu</t>
+  </si>
+  <si>
+    <t>Wenzhao Zheng</t>
+  </si>
+  <si>
+    <t>Chengyang Li</t>
+  </si>
+  <si>
+    <t>Brais Cancela</t>
+  </si>
+  <si>
+    <t>Zhe Liu</t>
+  </si>
+  <si>
+    <t>Zelin Zhang</t>
+  </si>
+  <si>
+    <t>Yuqi Ding</t>
+  </si>
+  <si>
+    <t>Da Chen</t>
+  </si>
+  <si>
+    <t>Feihu Huang</t>
+  </si>
+  <si>
+    <t>Shuai Li</t>
+  </si>
+  <si>
+    <t>Yong-Lu Li</t>
+  </si>
+  <si>
+    <t>Xin Chen</t>
+  </si>
+  <si>
+    <t>Jin Han</t>
+  </si>
+  <si>
+    <t>Tinglei Feng</t>
+  </si>
+  <si>
+    <t>Shiyin Zhang</t>
+  </si>
+  <si>
+    <t>Weijiang Yu</t>
+  </si>
+  <si>
+    <t>Tengpeng Li</t>
+  </si>
+  <si>
+    <t>Lei Yu</t>
+  </si>
+  <si>
+    <t>Zhe Cui</t>
+  </si>
+  <si>
+    <t>Hongyuan Zhang</t>
+  </si>
+  <si>
+    <t>Lu Qi</t>
+  </si>
+  <si>
+    <t>Zhun-ga Liu</t>
+  </si>
+  <si>
+    <t>Weikai Li</t>
+  </si>
+  <si>
+    <t>Jinyu Zhao</t>
+  </si>
+  <si>
+    <t>Linshan Wu</t>
+  </si>
+  <si>
+    <t>Jun Liu</t>
+  </si>
+  <si>
+    <t>Xiao Li</t>
+  </si>
+  <si>
+    <t>Zhi-Lin Zhao</t>
+  </si>
+  <si>
+    <t>Lin Gao</t>
+  </si>
+  <si>
+    <t>Jie Cao</t>
+  </si>
+  <si>
+    <t>Xiu Su</t>
+  </si>
+  <si>
+    <t>Binhui Xie</t>
+  </si>
+  <si>
+    <t>Wuyang Li</t>
+  </si>
+  <si>
+    <t>Meng Meng</t>
+  </si>
+  <si>
+    <t>Chaoyou Fu</t>
+  </si>
+  <si>
+    <t>Hongfu Liu</t>
+  </si>
+  <si>
+    <t>Zhuosheng Zhang</t>
+  </si>
+  <si>
+    <t>Chunhui Zhang</t>
+  </si>
+  <si>
+    <t>Xinzhe Luo</t>
+  </si>
+  <si>
+    <t>Yuhui Xu</t>
+  </si>
+  <si>
+    <t>Chin-Chun Chang</t>
+  </si>
+  <si>
+    <t>Shuyang Sun</t>
+  </si>
+  <si>
+    <t>Yongtuo Liu</t>
+  </si>
+  <si>
+    <t>Pei Wang</t>
+  </si>
+  <si>
+    <t>Wei Shen</t>
+  </si>
+  <si>
+    <t>Chenping Hou</t>
+  </si>
+  <si>
+    <t>Xiaotong Lu</t>
+  </si>
+  <si>
+    <t>Yiting Cheng</t>
+  </si>
+  <si>
+    <t>Yongqiang Tang</t>
+  </si>
+  <si>
+    <t>Mingqiang Wei</t>
+  </si>
+  <si>
+    <t>Man Yao</t>
+  </si>
+  <si>
+    <t>Jinshan Pan</t>
+  </si>
+  <si>
+    <t>Ce Wang</t>
+  </si>
+  <si>
+    <t>Zhiliang Peng</t>
+  </si>
+  <si>
+    <t>Zhigang Tu</t>
+  </si>
+  <si>
+    <t>Mantang Guo</t>
+  </si>
+  <si>
+    <t>Zixin Zhu</t>
+  </si>
+  <si>
+    <t>Dongkai Wang</t>
+  </si>
+  <si>
+    <t>Xueyang Fu</t>
+  </si>
+  <si>
+    <t>Jiyuan Liu</t>
+  </si>
+  <si>
+    <t>Mingye Xu</t>
+  </si>
+  <si>
+    <t>Qunliang Xing</t>
+  </si>
+  <si>
+    <t>Dong Liu</t>
+  </si>
+  <si>
+    <t>Qingqiang Chen</t>
+  </si>
+  <si>
+    <t>Yuxin Yao</t>
+  </si>
+  <si>
+    <t>Shenglong Zhou</t>
+  </si>
+  <si>
+    <t>Qing-Qing Zhang</t>
+  </si>
+  <si>
+    <t>Qijian Zhang</t>
+  </si>
+  <si>
+    <t>Yuexuan An</t>
+  </si>
+  <si>
+    <t>Chen Wu</t>
+  </si>
+  <si>
+    <t>Xinzhe Han</t>
+  </si>
+  <si>
+    <t>Zheng Qin</t>
+  </si>
+  <si>
+    <t>Junbo Yin</t>
+  </si>
+  <si>
+    <t>Onder Tutsoy</t>
+  </si>
+  <si>
+    <t>Xiaoqing Guo</t>
+  </si>
+  <si>
+    <t>Weichuan Zhang</t>
+  </si>
+  <si>
+    <t>Sida Peng</t>
+  </si>
+  <si>
+    <t>Guan-Lin Chen</t>
+  </si>
+  <si>
+    <t>Weiqing Min</t>
+  </si>
+  <si>
+    <t>Han Zhang</t>
+  </si>
+  <si>
+    <t>Shaojie Li</t>
+  </si>
+  <si>
+    <t>Mingzhen He</t>
+  </si>
+  <si>
+    <t>Zhaohui Zheng</t>
+  </si>
+  <si>
+    <t>HanQin Cai</t>
+  </si>
+  <si>
+    <t>Zhihua Wang</t>
+  </si>
+  <si>
+    <t>Bohan Yu</t>
+  </si>
+  <si>
+    <t>Daqi Liu</t>
+  </si>
+  <si>
+    <t>Lei Huang</t>
+  </si>
+  <si>
+    <t>Lei Ke</t>
+  </si>
+  <si>
+    <t>Hancheng Ye</t>
+  </si>
+  <si>
+    <t>Shengyu Zhang</t>
+  </si>
+  <si>
+    <t>Haoran Sun</t>
+  </si>
+  <si>
+    <t>Jiahao Xia</t>
+  </si>
+  <si>
+    <t>Haiping Wang</t>
+  </si>
+  <si>
+    <t>Lin Sui</t>
+  </si>
+  <si>
+    <t>Meng Ye</t>
+  </si>
+  <si>
+    <t>Ling-Li Zeng</t>
+  </si>
+  <si>
+    <t>Hao Zhang</t>
+  </si>
+  <si>
+    <t>Chaoyue Song</t>
+  </si>
+  <si>
+    <t>Yufei Cui</t>
+  </si>
+  <si>
+    <t>Xingchen Zhang</t>
+  </si>
+  <si>
+    <t>Zhihui Li</t>
+  </si>
+  <si>
+    <t>Yalong Bai</t>
+  </si>
+  <si>
+    <t>Jiamin Liu</t>
+  </si>
+  <si>
+    <t>Weiqin Chuah</t>
+  </si>
+  <si>
+    <t>Changwei Wang</t>
+  </si>
+  <si>
+    <t>Chunbo Lang</t>
+  </si>
+  <si>
+    <t>Kerui Gu</t>
+  </si>
+  <si>
+    <t>Dongjun Liu</t>
+  </si>
+  <si>
+    <t>Depeng Li</t>
+  </si>
+  <si>
+    <t>Changde Du</t>
+  </si>
+  <si>
+    <t>Tao Huang</t>
+  </si>
+  <si>
+    <t>Yifan Zhang</t>
+  </si>
+  <si>
+    <t>Seung Hwan Bae</t>
+  </si>
+  <si>
+    <t>Yi Wei</t>
+  </si>
+  <si>
+    <t>Ting Yao</t>
+  </si>
+  <si>
+    <t>Peng Zheng</t>
+  </si>
+  <si>
+    <t>Huan Wang</t>
+  </si>
+  <si>
+    <t>Hailin Wang</t>
+  </si>
+  <si>
+    <t>Shengrui Li</t>
+  </si>
+  <si>
+    <t>Jinxian Liu</t>
+  </si>
+  <si>
+    <t>Hui Li</t>
+  </si>
+  <si>
+    <t>Yongshun Gong</t>
+  </si>
+  <si>
+    <t>Zhaoxuan Zhang</t>
+  </si>
+  <si>
+    <t>Yurong Chen</t>
+  </si>
+  <si>
+    <t>Bohong Chen</t>
+  </si>
+  <si>
+    <t>Gaojie Wu</t>
+  </si>
+  <si>
+    <t>Jiayuan Li</t>
+  </si>
+  <si>
+    <t>Yuren Cong</t>
+  </si>
+  <si>
+    <t>Liushuai Shi</t>
+  </si>
+  <si>
+    <t>Hezhen Hu</t>
+  </si>
+  <si>
+    <t>Yadan Luo</t>
+  </si>
+  <si>
+    <t>Fan Lu</t>
+  </si>
+  <si>
+    <t>Aoran Xiao</t>
+  </si>
+  <si>
+    <t>Xin Hong</t>
+  </si>
+  <si>
+    <t>Jin Huang</t>
   </si>
   <si>
     <t>A Comprehensive Survey of Scene Graphs: Generation and Application.</t>
@@ -1553,1446 +2993,6 @@
   </si>
   <si>
     <t>Measuring Human Perception to Improve Open Set Recognition.</t>
-  </si>
-  <si>
-    <t>Xiaojun Chang</t>
-  </si>
-  <si>
-    <t>Risheng Liu</t>
-  </si>
-  <si>
-    <t>Xinyi Wu</t>
-  </si>
-  <si>
-    <t>Qi Cai</t>
-  </si>
-  <si>
-    <t>Dengxin Dai</t>
-  </si>
-  <si>
-    <t>Ming-Kun Xie</t>
-  </si>
-  <si>
-    <t>Shenfei Pei</t>
-  </si>
-  <si>
-    <t>Tao Zhou</t>
-  </si>
-  <si>
-    <t>Hongyuan Yu</t>
-  </si>
-  <si>
-    <t>Zhongyan Zhang</t>
-  </si>
-  <si>
-    <t>Peng Xu</t>
-  </si>
-  <si>
-    <t>Chenyang Lei</t>
-  </si>
-  <si>
-    <t>Zhenyu Guan</t>
-  </si>
-  <si>
-    <t>Xin Wang</t>
-  </si>
-  <si>
-    <t>Yingqian Wang</t>
-  </si>
-  <si>
-    <t>Yu Yao</t>
-  </si>
-  <si>
-    <t>Haojie Zhao</t>
-  </si>
-  <si>
-    <t>Hang Yu</t>
-  </si>
-  <si>
-    <t>Haoxin Li</t>
-  </si>
-  <si>
-    <t>Xudong Shen</t>
-  </si>
-  <si>
-    <t>Yuval Nirkin</t>
-  </si>
-  <si>
-    <t>Shiyu Hu</t>
-  </si>
-  <si>
-    <t>Jae Shin Yoon</t>
-  </si>
-  <si>
-    <t>Kunpeng Li</t>
-  </si>
-  <si>
-    <t>Zhenguang Liu</t>
-  </si>
-  <si>
-    <t>Tehrim Yoon</t>
-  </si>
-  <si>
-    <t>Zhen Peng</t>
-  </si>
-  <si>
-    <t>Qi Wang</t>
-  </si>
-  <si>
-    <t>Hao Tang</t>
-  </si>
-  <si>
-    <t>Shasha Guo</t>
-  </si>
-  <si>
-    <t>Asif Salim</t>
-  </si>
-  <si>
-    <t>Xin Wen</t>
-  </si>
-  <si>
-    <t>Ran Yi</t>
-  </si>
-  <si>
-    <t>Xiaoming Deng</t>
-  </si>
-  <si>
-    <t>Haoran Zhou</t>
-  </si>
-  <si>
-    <t>Hao Peng</t>
-  </si>
-  <si>
-    <t>Hongteng Xu</t>
-  </si>
-  <si>
-    <t>Shilong Bao</t>
-  </si>
-  <si>
-    <t>Dafeng Wang</t>
-  </si>
-  <si>
-    <t>Zhen Fang</t>
-  </si>
-  <si>
-    <t>Shuangjun Liu</t>
-  </si>
-  <si>
-    <t>Yujie Wang</t>
-  </si>
-  <si>
-    <t>Yu Wu</t>
-  </si>
-  <si>
-    <t>Zhaokang Chen</t>
-  </si>
-  <si>
-    <t>Xinyi Xu</t>
-  </si>
-  <si>
-    <t>Yunus Can Bilge</t>
-  </si>
-  <si>
-    <t>Lin Zhu</t>
-  </si>
-  <si>
-    <t>Wenjing Wang</t>
-  </si>
-  <si>
-    <t>Zhen Cui</t>
-  </si>
-  <si>
-    <t>Jinwang Wang</t>
-  </si>
-  <si>
-    <t>Shi Qiu</t>
-  </si>
-  <si>
-    <t>Qibin Hou</t>
-  </si>
-  <si>
-    <t>Hamid Laga</t>
-  </si>
-  <si>
-    <t>Bin Chen</t>
-  </si>
-  <si>
-    <t>Shangqi Gao</t>
-  </si>
-  <si>
-    <t>Renjie Wan</t>
-  </si>
-  <si>
-    <t>Yongqi Zhang</t>
-  </si>
-  <si>
-    <t>Yi-Fan Song</t>
-  </si>
-  <si>
-    <t>Yehao Li</t>
-  </si>
-  <si>
-    <t>Guo Pu</t>
-  </si>
-  <si>
-    <t>Zhi Gao</t>
-  </si>
-  <si>
-    <t>Zhaoqi Su</t>
-  </si>
-  <si>
-    <t>Anees Kazi</t>
-  </si>
-  <si>
-    <t>Yu Cheng</t>
-  </si>
-  <si>
-    <t>Jie Wang</t>
-  </si>
-  <si>
-    <t>Shaojing Fan</t>
-  </si>
-  <si>
-    <t>Zhangjie Cao</t>
-  </si>
-  <si>
-    <t>Jieting Wang</t>
-  </si>
-  <si>
-    <t>Han-Jia Ye</t>
-  </si>
-  <si>
-    <t>Yubo Zhang</t>
-  </si>
-  <si>
-    <t>Xuhui Fan</t>
-  </si>
-  <si>
-    <t>Qin Lu</t>
-  </si>
-  <si>
-    <t>Ziwei Wang</t>
-  </si>
-  <si>
-    <t>Dong Qian</t>
-  </si>
-  <si>
-    <t>Chuanchen Luo</t>
-  </si>
-  <si>
-    <t>Xuelong Li</t>
-  </si>
-  <si>
-    <t>Hou-Ning Hu</t>
-  </si>
-  <si>
-    <t>Yu-Hui Wen</t>
-  </si>
-  <si>
-    <t>Xi Zhang</t>
-  </si>
-  <si>
-    <t>Jiahui Huang</t>
-  </si>
-  <si>
-    <t>Fuyuan Xiao</t>
-  </si>
-  <si>
-    <t>Ziyu Wan</t>
-  </si>
-  <si>
-    <t>Jiuniu Wang</t>
-  </si>
-  <si>
-    <t>Wei Wang</t>
-  </si>
-  <si>
-    <t>Peisong Wang</t>
-  </si>
-  <si>
-    <t>Youwei Lyu</t>
-  </si>
-  <si>
-    <t>Chao Wen</t>
-  </si>
-  <si>
-    <t>Hehe Fan</t>
-  </si>
-  <si>
-    <t>Yongming Rao</t>
-  </si>
-  <si>
-    <t>Yunbo Wang</t>
-  </si>
-  <si>
-    <t>Yucheng Shi</t>
-  </si>
-  <si>
-    <t>Shengxi Li</t>
-  </si>
-  <si>
-    <t>Ziheng Cheng</t>
-  </si>
-  <si>
-    <t>Hiroki Kato</t>
-  </si>
-  <si>
-    <t>Deng-Ping Fan</t>
-  </si>
-  <si>
-    <t>Yukang Chen</t>
-  </si>
-  <si>
-    <t>Yaochen Xie</t>
-  </si>
-  <si>
-    <t>Weitao Wan</t>
-  </si>
-  <si>
-    <t>Weiyang Liu</t>
-  </si>
-  <si>
-    <t>Di Lin</t>
-  </si>
-  <si>
-    <t>Rui Dai</t>
-  </si>
-  <si>
-    <t>Zongbo Han</t>
-  </si>
-  <si>
-    <t>Bilian Chen</t>
-  </si>
-  <si>
-    <t>Yifu Zhang</t>
-  </si>
-  <si>
-    <t>Zheng Zhu</t>
-  </si>
-  <si>
-    <t>Yalan Qin</t>
-  </si>
-  <si>
-    <t>Yu Wang</t>
-  </si>
-  <si>
-    <t>Yujiao Shi</t>
-  </si>
-  <si>
-    <t>Xingxing Wei</t>
-  </si>
-  <si>
-    <t>Yiwen Guo</t>
-  </si>
-  <si>
-    <t>Shi-Xue Zhang</t>
-  </si>
-  <si>
-    <t>Changqin Huang</t>
-  </si>
-  <si>
-    <t>Jingting Li</t>
-  </si>
-  <si>
-    <t>Chunfeng Song</t>
-  </si>
-  <si>
-    <t>Chen Gong</t>
-  </si>
-  <si>
-    <t>Shuaicheng Liu</t>
-  </si>
-  <si>
-    <t>Weixia Zhang</t>
-  </si>
-  <si>
-    <t>Xinyue Wang</t>
-  </si>
-  <si>
-    <t>Haolan Chen</t>
-  </si>
-  <si>
-    <t>Zhuming Zhang</t>
-  </si>
-  <si>
-    <t>Siqi Wang</t>
-  </si>
-  <si>
-    <t>Shanghua Gao</t>
-  </si>
-  <si>
-    <t>Xuejing Liu</t>
-  </si>
-  <si>
-    <t>Tao Zhao</t>
-  </si>
-  <si>
-    <t>Zhuang Liu</t>
-  </si>
-  <si>
-    <t>Xiaobo Xia</t>
-  </si>
-  <si>
-    <t>Rui Tao</t>
-  </si>
-  <si>
-    <t>Weiming Hu</t>
-  </si>
-  <si>
-    <t>Yifan Zhao</t>
-  </si>
-  <si>
-    <t>Weihao Xia</t>
-  </si>
-  <si>
-    <t>Yue Gao</t>
-  </si>
-  <si>
-    <t>Zehua Sun</t>
-  </si>
-  <si>
-    <t>Ziyang Zheng</t>
-  </si>
-  <si>
-    <t>Hanrui Wu</t>
-  </si>
-  <si>
-    <t>Chenlei Lv</t>
-  </si>
-  <si>
-    <t>Junchen Zhu</t>
-  </si>
-  <si>
-    <t>Haiyang Mei</t>
-  </si>
-  <si>
-    <t>Mengmeng Wang</t>
-  </si>
-  <si>
-    <t>Hao Wang</t>
-  </si>
-  <si>
-    <t>Yufan Liu</t>
-  </si>
-  <si>
-    <t>Jipeng Guo</t>
-  </si>
-  <si>
-    <t>Tao Li</t>
-  </si>
-  <si>
-    <t>Jinhua Zhu</t>
-  </si>
-  <si>
-    <t>Haifeng Xia</t>
-  </si>
-  <si>
-    <t>Huaibo Huang</t>
-  </si>
-  <si>
-    <t>Quanyi Li</t>
-  </si>
-  <si>
-    <t>Zhenshan Bing</t>
-  </si>
-  <si>
-    <t>Xin Tan</t>
-  </si>
-  <si>
-    <t>Jun Shu</t>
-  </si>
-  <si>
-    <t>Chengbo Dong</t>
-  </si>
-  <si>
-    <t>Yue Song</t>
-  </si>
-  <si>
-    <t>Berkan Dulek</t>
-  </si>
-  <si>
-    <t>Lingbo Liu</t>
-  </si>
-  <si>
-    <t>Yaoyao Zhong</t>
-  </si>
-  <si>
-    <t>Xingyu Xie</t>
-  </si>
-  <si>
-    <t>Haichuan Ma</t>
-  </si>
-  <si>
-    <t>Chaoqi Chen</t>
-  </si>
-  <si>
-    <t>Jiequan Cui</t>
-  </si>
-  <si>
-    <t>Mingchen Zhuge</t>
-  </si>
-  <si>
-    <t>Haohang Xu</t>
-  </si>
-  <si>
-    <t>Haitian Zheng</t>
-  </si>
-  <si>
-    <t>Jiale Cao</t>
-  </si>
-  <si>
-    <t>Yaojie Liu</t>
-  </si>
-  <si>
-    <t>Lingling Zhang</t>
-  </si>
-  <si>
-    <t>Pengfei Wei</t>
-  </si>
-  <si>
-    <t>Peng Hu</t>
-  </si>
-  <si>
-    <t>Haopeng Li</t>
-  </si>
-  <si>
-    <t>Mingjie Li</t>
-  </si>
-  <si>
-    <t>Sheng Ao</t>
-  </si>
-  <si>
-    <t>Rui Zhang</t>
-  </si>
-  <si>
-    <t>Amos Golan</t>
-  </si>
-  <si>
-    <t>Mingbao Lin</t>
-  </si>
-  <si>
-    <t>Liping Deng</t>
-  </si>
-  <si>
-    <t>Farhad Pourpanah</t>
-  </si>
-  <si>
-    <t>Ke Ma</t>
-  </si>
-  <si>
-    <t>Hui Shuai</t>
-  </si>
-  <si>
-    <t>Jiayong Peng</t>
-  </si>
-  <si>
-    <t>Hongzhi Huang</t>
-  </si>
-  <si>
-    <t>Dong Li</t>
-  </si>
-  <si>
-    <t>Shiqi Chen</t>
-  </si>
-  <si>
-    <t>Pan Du</t>
-  </si>
-  <si>
-    <t>Hao Zhou</t>
-  </si>
-  <si>
-    <t>Tao Sun</t>
-  </si>
-  <si>
-    <t>Elahe Vahdani</t>
-  </si>
-  <si>
-    <t>Xuguang Duan</t>
-  </si>
-  <si>
-    <t>Kenji Enomoto</t>
-  </si>
-  <si>
-    <t>Jiahuan Zhou</t>
-  </si>
-  <si>
-    <t>André Greiner-Petter</t>
-  </si>
-  <si>
-    <t>Yilun Chen</t>
-  </si>
-  <si>
-    <t>Changlin Li</t>
-  </si>
-  <si>
-    <t>Yijie Lin</t>
-  </si>
-  <si>
-    <t>Longguang Wang</t>
-  </si>
-  <si>
-    <t>Shaofei Qin</t>
-  </si>
-  <si>
-    <t>Qi Xie</t>
-  </si>
-  <si>
-    <t>Zhihao Hu</t>
-  </si>
-  <si>
-    <t>Chaojie Wang</t>
-  </si>
-  <si>
-    <t>Gao Huang</t>
-  </si>
-  <si>
-    <t>Xikun Zhang</t>
-  </si>
-  <si>
-    <t>Gong Cheng</t>
-  </si>
-  <si>
-    <t>Junfeng Jing</t>
-  </si>
-  <si>
-    <t>Daizong Liu</t>
-  </si>
-  <si>
-    <t>Shengsheng Qian</t>
-  </si>
-  <si>
-    <t>Mengke Li</t>
-  </si>
-  <si>
-    <t>Xiaotong Luo</t>
-  </si>
-  <si>
-    <t>Kwanseok Oh</t>
-  </si>
-  <si>
-    <t>Feiping Nie</t>
-  </si>
-  <si>
-    <t>Zhiqin Chen</t>
-  </si>
-  <si>
-    <t>Yifei Shi</t>
-  </si>
-  <si>
-    <t>Guangtao Nie</t>
-  </si>
-  <si>
-    <t>Qingshan Xu</t>
-  </si>
-  <si>
-    <t>Xingyu Wu</t>
-  </si>
-  <si>
-    <t>Nan Zhang</t>
-  </si>
-  <si>
-    <t>Buzhen Huang</t>
-  </si>
-  <si>
-    <t>Zitai Wang</t>
-  </si>
-  <si>
-    <t>Shanyan Guan</t>
-  </si>
-  <si>
-    <t>Quanshi Zhang</t>
-  </si>
-  <si>
-    <t>Zedu Chen</t>
-  </si>
-  <si>
-    <t>Xinwang Liu</t>
-  </si>
-  <si>
-    <t>Wei Xia</t>
-  </si>
-  <si>
-    <t>Chong Mou</t>
-  </si>
-  <si>
-    <t>Shangzhe Wu</t>
-  </si>
-  <si>
-    <t>Yiheng Liu</t>
-  </si>
-  <si>
-    <t>Lumin Xu</t>
-  </si>
-  <si>
-    <t>Zhengxin Li</t>
-  </si>
-  <si>
-    <t>Il Yong Chun</t>
-  </si>
-  <si>
-    <t>Shuren Qi</t>
-  </si>
-  <si>
-    <t>Xiaojie Guo</t>
-  </si>
-  <si>
-    <t>Hongbin Lin</t>
-  </si>
-  <si>
-    <t>Wei Dong</t>
-  </si>
-  <si>
-    <t>Meng-Hao Guo</t>
-  </si>
-  <si>
-    <t>Fu-En Wang</t>
-  </si>
-  <si>
-    <t>Anran Liu</t>
-  </si>
-  <si>
-    <t>Yikai Wang</t>
-  </si>
-  <si>
-    <t>Xiao Wang</t>
-  </si>
-  <si>
-    <t>Difei Gao</t>
-  </si>
-  <si>
-    <t>Yohai Reani</t>
-  </si>
-  <si>
-    <t>Zitong Yu</t>
-  </si>
-  <si>
-    <t>Chi Zhang</t>
-  </si>
-  <si>
-    <t>Wenbin Li</t>
-  </si>
-  <si>
-    <t>Xin Qiao</t>
-  </si>
-  <si>
-    <t>Hexiang Hu</t>
-  </si>
-  <si>
-    <t>Tong He</t>
-  </si>
-  <si>
-    <t>Li Zhang</t>
-  </si>
-  <si>
-    <t>Fei Ye</t>
-  </si>
-  <si>
-    <t>Guangming Wang</t>
-  </si>
-  <si>
-    <t>Donglin Di</t>
-  </si>
-  <si>
-    <t>Mingzhu Zhu</t>
-  </si>
-  <si>
-    <t>Dihan Zheng</t>
-  </si>
-  <si>
-    <t>Xiaoming Li</t>
-  </si>
-  <si>
-    <t>Zhenchao Jin</t>
-  </si>
-  <si>
-    <t>Junsong Fan</t>
-  </si>
-  <si>
-    <t>Fuping Wu</t>
-  </si>
-  <si>
-    <t>Lei Jiao</t>
-  </si>
-  <si>
-    <t>Jinjing Shi</t>
-  </si>
-  <si>
-    <t>Guilin Liu</t>
-  </si>
-  <si>
-    <t>Xinming Wang</t>
-  </si>
-  <si>
-    <t>Jie Zhao</t>
-  </si>
-  <si>
-    <t>Kexue Fu</t>
-  </si>
-  <si>
-    <t>Zhuo Su</t>
-  </si>
-  <si>
-    <t>Bin Fan</t>
-  </si>
-  <si>
-    <t>Hui Zhang</t>
-  </si>
-  <si>
-    <t>Zhentao Tan</t>
-  </si>
-  <si>
-    <t>Jia Li</t>
-  </si>
-  <si>
-    <t>Shengtian Sang</t>
-  </si>
-  <si>
-    <t>Junyi Guan</t>
-  </si>
-  <si>
-    <t>Takayuki Hara</t>
-  </si>
-  <si>
-    <t>Xiaoqin Zhang</t>
-  </si>
-  <si>
-    <t>Fang Bai</t>
-  </si>
-  <si>
-    <t>T. M. Feroz Ali</t>
-  </si>
-  <si>
-    <t>Zhongyi Han</t>
-  </si>
-  <si>
-    <t>Wei Yin</t>
-  </si>
-  <si>
-    <t>Ning Xu</t>
-  </si>
-  <si>
-    <t>Xiaohan Wang</t>
-  </si>
-  <si>
-    <t>Huangyue Yu</t>
-  </si>
-  <si>
-    <t>Shijie Li</t>
-  </si>
-  <si>
-    <t>Zhaobo Qi</t>
-  </si>
-  <si>
-    <t>Hae-Gon Jeon</t>
-  </si>
-  <si>
-    <t>Haonan Luo</t>
-  </si>
-  <si>
-    <t>Song Bai</t>
-  </si>
-  <si>
-    <t>Zhengyang Wang</t>
-  </si>
-  <si>
-    <t>Yue Cao</t>
-  </si>
-  <si>
-    <t>Zilong Huang</t>
-  </si>
-  <si>
-    <t>Yecheng Lyu</t>
-  </si>
-  <si>
-    <t>Guohao Li</t>
-  </si>
-  <si>
-    <t>Minsi Wang</t>
-  </si>
-  <si>
-    <t>Zhao-Min Chen</t>
-  </si>
-  <si>
-    <t>Runzhong Wang</t>
-  </si>
-  <si>
-    <t>Yiming Gao</t>
-  </si>
-  <si>
-    <t>Yifan Liu</t>
-  </si>
-  <si>
-    <t>Mojtaba Nayyeri</t>
-  </si>
-  <si>
-    <t>Zhoumin Lu</t>
-  </si>
-  <si>
-    <t>Shancheng Fang</t>
-  </si>
-  <si>
-    <t>Haoshu Fang</t>
-  </si>
-  <si>
-    <t>Seokju Cho</t>
-  </si>
-  <si>
-    <t>Shichao Kan</t>
-  </si>
-  <si>
-    <t>Jinxing Zhou</t>
-  </si>
-  <si>
-    <t>Hanchi Huang</t>
-  </si>
-  <si>
-    <t>Wei Chen</t>
-  </si>
-  <si>
-    <t>Dixin Luo</t>
-  </si>
-  <si>
-    <t>Chuchu Han</t>
-  </si>
-  <si>
-    <t>Yifan Jiao</t>
-  </si>
-  <si>
-    <t>Andrés F. Duque</t>
-  </si>
-  <si>
-    <t>Yinghao Xu</t>
-  </si>
-  <si>
-    <t>Xiaodong Jia</t>
-  </si>
-  <si>
-    <t>Aditya Chattopadhyay</t>
-  </si>
-  <si>
-    <t>Junqing Huang</t>
-  </si>
-  <si>
-    <t>Fei Zhu</t>
-  </si>
-  <si>
-    <t>Hao Chen</t>
-  </si>
-  <si>
-    <t>Zhizhong Huang</t>
-  </si>
-  <si>
-    <t>Xin Wei</t>
-  </si>
-  <si>
-    <t>Jielei Chu</t>
-  </si>
-  <si>
-    <t>Zhenyuan Ning</t>
-  </si>
-  <si>
-    <t>Moritz Böhle</t>
-  </si>
-  <si>
-    <t>Chengming Xu</t>
-  </si>
-  <si>
-    <t>Guang Feng</t>
-  </si>
-  <si>
-    <t>Qianqian Xu</t>
-  </si>
-  <si>
-    <t>Changxin Huang</t>
-  </si>
-  <si>
-    <t>Shuquan Ye</t>
-  </si>
-  <si>
-    <t>Zehong Shen</t>
-  </si>
-  <si>
-    <t>Cheng Wang</t>
-  </si>
-  <si>
-    <t>Hai Wan</t>
-  </si>
-  <si>
-    <t>Zhi Chen</t>
-  </si>
-  <si>
-    <t>Tom J. Viering</t>
-  </si>
-  <si>
-    <t>Yihong Xu</t>
-  </si>
-  <si>
-    <t>Fadime Sener</t>
-  </si>
-  <si>
-    <t>Qianyu Zhou</t>
-  </si>
-  <si>
-    <t>Henghui Ding</t>
-  </si>
-  <si>
-    <t>Cencheng Shen</t>
-  </si>
-  <si>
-    <t>Yin Li</t>
-  </si>
-  <si>
-    <t>Anjing Guo</t>
-  </si>
-  <si>
-    <t>Xuefei Ning</t>
-  </si>
-  <si>
-    <t>Chulun Zhou</t>
-  </si>
-  <si>
-    <t>Wei Gao</t>
-  </si>
-  <si>
-    <t>Hong-Yu Zhou</t>
-  </si>
-  <si>
-    <t>Xiuwen Gong</t>
-  </si>
-  <si>
-    <t>Xingping Dong</t>
-  </si>
-  <si>
-    <t>Xiong Zhou</t>
-  </si>
-  <si>
-    <t>Changming Zhao</t>
-  </si>
-  <si>
-    <t>Yajing Zheng</t>
-  </si>
-  <si>
-    <t>Xin Ding</t>
-  </si>
-  <si>
-    <t>Juhong Min</t>
-  </si>
-  <si>
-    <t>Yujing Wang</t>
-  </si>
-  <si>
-    <t>Ziyue Zhu</t>
-  </si>
-  <si>
-    <t>Zhu Sun</t>
-  </si>
-  <si>
-    <t>Junjie Hu</t>
-  </si>
-  <si>
-    <t>Wenzhao Zheng</t>
-  </si>
-  <si>
-    <t>Chengyang Li</t>
-  </si>
-  <si>
-    <t>Brais Cancela</t>
-  </si>
-  <si>
-    <t>Zhe Liu</t>
-  </si>
-  <si>
-    <t>Zelin Zhang</t>
-  </si>
-  <si>
-    <t>Yuqi Ding</t>
-  </si>
-  <si>
-    <t>Da Chen</t>
-  </si>
-  <si>
-    <t>Feihu Huang</t>
-  </si>
-  <si>
-    <t>Shuai Li</t>
-  </si>
-  <si>
-    <t>Yong-Lu Li</t>
-  </si>
-  <si>
-    <t>Xin Chen</t>
-  </si>
-  <si>
-    <t>Jin Han</t>
-  </si>
-  <si>
-    <t>Tinglei Feng</t>
-  </si>
-  <si>
-    <t>Shiyin Zhang</t>
-  </si>
-  <si>
-    <t>Weijiang Yu</t>
-  </si>
-  <si>
-    <t>Tengpeng Li</t>
-  </si>
-  <si>
-    <t>Lei Yu</t>
-  </si>
-  <si>
-    <t>Zhe Cui</t>
-  </si>
-  <si>
-    <t>Hongyuan Zhang</t>
-  </si>
-  <si>
-    <t>Lu Qi</t>
-  </si>
-  <si>
-    <t>Zhun-ga Liu</t>
-  </si>
-  <si>
-    <t>Weikai Li</t>
-  </si>
-  <si>
-    <t>Jinyu Zhao</t>
-  </si>
-  <si>
-    <t>Linshan Wu</t>
-  </si>
-  <si>
-    <t>Jun Liu</t>
-  </si>
-  <si>
-    <t>Xiao Li</t>
-  </si>
-  <si>
-    <t>Zhi-Lin Zhao</t>
-  </si>
-  <si>
-    <t>Lin Gao</t>
-  </si>
-  <si>
-    <t>Jie Cao</t>
-  </si>
-  <si>
-    <t>Xiu Su</t>
-  </si>
-  <si>
-    <t>Binhui Xie</t>
-  </si>
-  <si>
-    <t>Wuyang Li</t>
-  </si>
-  <si>
-    <t>Meng Meng</t>
-  </si>
-  <si>
-    <t>Chaoyou Fu</t>
-  </si>
-  <si>
-    <t>Hongfu Liu</t>
-  </si>
-  <si>
-    <t>Zhuosheng Zhang</t>
-  </si>
-  <si>
-    <t>Chunhui Zhang</t>
-  </si>
-  <si>
-    <t>Xinzhe Luo</t>
-  </si>
-  <si>
-    <t>Yuhui Xu</t>
-  </si>
-  <si>
-    <t>Chin-Chun Chang</t>
-  </si>
-  <si>
-    <t>Shuyang Sun</t>
-  </si>
-  <si>
-    <t>Yongtuo Liu</t>
-  </si>
-  <si>
-    <t>Pei Wang</t>
-  </si>
-  <si>
-    <t>Wei Shen</t>
-  </si>
-  <si>
-    <t>Chenping Hou</t>
-  </si>
-  <si>
-    <t>Xiaotong Lu</t>
-  </si>
-  <si>
-    <t>Yiting Cheng</t>
-  </si>
-  <si>
-    <t>Yongqiang Tang</t>
-  </si>
-  <si>
-    <t>Mingqiang Wei</t>
-  </si>
-  <si>
-    <t>Man Yao</t>
-  </si>
-  <si>
-    <t>Jinshan Pan</t>
-  </si>
-  <si>
-    <t>Ce Wang</t>
-  </si>
-  <si>
-    <t>Zhiliang Peng</t>
-  </si>
-  <si>
-    <t>Zhigang Tu</t>
-  </si>
-  <si>
-    <t>Mantang Guo</t>
-  </si>
-  <si>
-    <t>Zixin Zhu</t>
-  </si>
-  <si>
-    <t>Dongkai Wang</t>
-  </si>
-  <si>
-    <t>Xueyang Fu</t>
-  </si>
-  <si>
-    <t>Jiyuan Liu</t>
-  </si>
-  <si>
-    <t>Mingye Xu</t>
-  </si>
-  <si>
-    <t>Qunliang Xing</t>
-  </si>
-  <si>
-    <t>Dong Liu</t>
-  </si>
-  <si>
-    <t>Qingqiang Chen</t>
-  </si>
-  <si>
-    <t>Yuxin Yao</t>
-  </si>
-  <si>
-    <t>Shenglong Zhou</t>
-  </si>
-  <si>
-    <t>Qing-Qing Zhang</t>
-  </si>
-  <si>
-    <t>Qijian Zhang</t>
-  </si>
-  <si>
-    <t>Yuexuan An</t>
-  </si>
-  <si>
-    <t>Chen Wu</t>
-  </si>
-  <si>
-    <t>Xinzhe Han</t>
-  </si>
-  <si>
-    <t>Zheng Qin</t>
-  </si>
-  <si>
-    <t>Junbo Yin</t>
-  </si>
-  <si>
-    <t>Onder Tutsoy</t>
-  </si>
-  <si>
-    <t>Xiaoqing Guo</t>
-  </si>
-  <si>
-    <t>Weichuan Zhang</t>
-  </si>
-  <si>
-    <t>Sida Peng</t>
-  </si>
-  <si>
-    <t>Guan-Lin Chen</t>
-  </si>
-  <si>
-    <t>Weiqing Min</t>
-  </si>
-  <si>
-    <t>Han Zhang</t>
-  </si>
-  <si>
-    <t>Shaojie Li</t>
-  </si>
-  <si>
-    <t>Mingzhen He</t>
-  </si>
-  <si>
-    <t>Zhaohui Zheng</t>
-  </si>
-  <si>
-    <t>HanQin Cai</t>
-  </si>
-  <si>
-    <t>Zhihua Wang</t>
-  </si>
-  <si>
-    <t>Bohan Yu</t>
-  </si>
-  <si>
-    <t>Daqi Liu</t>
-  </si>
-  <si>
-    <t>Lei Huang</t>
-  </si>
-  <si>
-    <t>Lei Ke</t>
-  </si>
-  <si>
-    <t>Hancheng Ye</t>
-  </si>
-  <si>
-    <t>Shengyu Zhang</t>
-  </si>
-  <si>
-    <t>Haoran Sun</t>
-  </si>
-  <si>
-    <t>Jiahao Xia</t>
-  </si>
-  <si>
-    <t>Haiping Wang</t>
-  </si>
-  <si>
-    <t>Lin Sui</t>
-  </si>
-  <si>
-    <t>Meng Ye</t>
-  </si>
-  <si>
-    <t>Ling-Li Zeng</t>
-  </si>
-  <si>
-    <t>Hao Zhang</t>
-  </si>
-  <si>
-    <t>Chaoyue Song</t>
-  </si>
-  <si>
-    <t>Yufei Cui</t>
-  </si>
-  <si>
-    <t>Xingchen Zhang</t>
-  </si>
-  <si>
-    <t>Zhihui Li</t>
-  </si>
-  <si>
-    <t>Yalong Bai</t>
-  </si>
-  <si>
-    <t>Jiamin Liu</t>
-  </si>
-  <si>
-    <t>Weiqin Chuah</t>
-  </si>
-  <si>
-    <t>Changwei Wang</t>
-  </si>
-  <si>
-    <t>Chunbo Lang</t>
-  </si>
-  <si>
-    <t>Kerui Gu</t>
-  </si>
-  <si>
-    <t>Dongjun Liu</t>
-  </si>
-  <si>
-    <t>Depeng Li</t>
-  </si>
-  <si>
-    <t>Changde Du</t>
-  </si>
-  <si>
-    <t>Tao Huang</t>
-  </si>
-  <si>
-    <t>Yifan Zhang</t>
-  </si>
-  <si>
-    <t>Seung Hwan Bae</t>
-  </si>
-  <si>
-    <t>Yi Wei</t>
-  </si>
-  <si>
-    <t>Ting Yao</t>
-  </si>
-  <si>
-    <t>Peng Zheng</t>
-  </si>
-  <si>
-    <t>Huan Wang</t>
-  </si>
-  <si>
-    <t>Hailin Wang</t>
-  </si>
-  <si>
-    <t>Shengrui Li</t>
-  </si>
-  <si>
-    <t>Jinxian Liu</t>
-  </si>
-  <si>
-    <t>Hui Li</t>
-  </si>
-  <si>
-    <t>Yongshun Gong</t>
-  </si>
-  <si>
-    <t>Zhaoxuan Zhang</t>
-  </si>
-  <si>
-    <t>Yurong Chen</t>
-  </si>
-  <si>
-    <t>Bohong Chen</t>
-  </si>
-  <si>
-    <t>Gaojie Wu</t>
-  </si>
-  <si>
-    <t>Jiayuan Li</t>
-  </si>
-  <si>
-    <t>Yuren Cong</t>
-  </si>
-  <si>
-    <t>Liushuai Shi</t>
-  </si>
-  <si>
-    <t>Hezhen Hu</t>
-  </si>
-  <si>
-    <t>Yadan Luo</t>
-  </si>
-  <si>
-    <t>Fan Lu</t>
-  </si>
-  <si>
-    <t>Aoran Xiao</t>
-  </si>
-  <si>
-    <t>Xin Hong</t>
-  </si>
-  <si>
-    <t>Jin Huang</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3369,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>516</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3401,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>530</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>532</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>538</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>539</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3585,7 +3585,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>540</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3593,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>542</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3609,7 +3609,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3625,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3633,7 +3633,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>546</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3641,7 +3641,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3649,7 +3649,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3657,7 +3657,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3665,7 +3665,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3673,7 +3673,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3681,7 +3681,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3713,7 +3713,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>556</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3721,7 +3721,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>557</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3729,7 +3729,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3769,7 +3769,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3777,7 +3777,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -3785,7 +3785,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -3817,7 +3817,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -3825,7 +3825,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3833,7 +3833,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -3841,7 +3841,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -3849,7 +3849,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -3889,7 +3889,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -3913,7 +3913,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -3921,7 +3921,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>594</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>600</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -4089,7 +4089,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -4105,7 +4105,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -4113,7 +4113,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -4121,7 +4121,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -4129,7 +4129,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>608</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -4169,7 +4169,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -4177,7 +4177,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -4217,7 +4217,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>621</v>
+        <v>590</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>622</v>
+        <v>591</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>623</v>
+        <v>592</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>624</v>
+        <v>593</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>626</v>
+        <v>595</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>636</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -4401,3036 +4401,3036 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>557</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="B161" t="s">
-        <v>581</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>671</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>672</v>
+        <v>643</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>673</v>
+        <v>644</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>674</v>
+        <v>645</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>675</v>
+        <v>646</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>676</v>
+        <v>647</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>677</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>678</v>
+        <v>649</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>679</v>
+        <v>650</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>680</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="B172" t="s">
-        <v>596</v>
+        <v>652</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B173" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B174" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B175" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B177" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B178" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B179" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B180" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B181" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B183" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B186" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B188" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B189" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B190" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B192" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B193" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B194" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B196" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B197" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B199" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B200" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B201" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B202" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B203" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B204" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B205" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B206" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B207" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B209" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B211" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B212" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B214" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B216" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B217" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B219" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B220" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B222" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B223" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B224" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B225" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B226" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B228" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="B229" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B230" t="s">
-        <v>737</v>
+        <v>710</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B231" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B232" t="s">
-        <v>739</v>
+        <v>712</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B233" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B234" t="s">
-        <v>741</v>
+        <v>714</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B235" t="s">
-        <v>742</v>
+        <v>715</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B236" t="s">
-        <v>743</v>
+        <v>716</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B237" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B238" t="s">
-        <v>745</v>
+        <v>718</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B239" t="s">
-        <v>746</v>
+        <v>719</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B240" t="s">
-        <v>747</v>
+        <v>720</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B241" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>749</v>
+        <v>722</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B244" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B245" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B246" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B247" t="s">
-        <v>754</v>
+        <v>727</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B248" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B249" t="s">
-        <v>756</v>
+        <v>729</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B251" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B252" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B253" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="B255" t="s">
-        <v>573</v>
+        <v>735</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="B256" t="s">
-        <v>514</v>
+        <v>736</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B257" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B258" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B259" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>260</v>
+        <v>30</v>
       </c>
       <c r="B260" t="s">
-        <v>541</v>
+        <v>740</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B261" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B262" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B263" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B264" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B265" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B266" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B267" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B268" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B269" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B270" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B271" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="B272" t="s">
-        <v>684</v>
+        <v>752</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B273" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B274" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B275" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B276" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B277" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B278" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B279" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B280" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B281" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B282" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B283" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B284" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B285" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B286" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B287" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B288" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B289" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B290" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B291" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B292" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B293" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B294" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B295" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B296" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B297" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B298" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B299" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B300" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B301" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="B302" t="s">
-        <v>677</v>
+        <v>782</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B303" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B304" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B305" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B306" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B307" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B308" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B309" t="s">
-        <v>811</v>
+        <v>789</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B310" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B311" t="s">
-        <v>813</v>
+        <v>791</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>312</v>
+        <v>152</v>
       </c>
       <c r="B312" t="s">
-        <v>663</v>
+        <v>792</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B313" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B314" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B315" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B316" t="s">
-        <v>817</v>
+        <v>796</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B317" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c r="B318" t="s">
-        <v>634</v>
+        <v>798</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B319" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B320" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B321" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B322" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B323" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B324" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B325" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B326" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B327" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B328" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B329" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B330" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>331</v>
+        <v>140</v>
       </c>
       <c r="B331" t="s">
-        <v>651</v>
+        <v>811</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B332" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B333" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B334" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>335</v>
+        <v>132</v>
       </c>
       <c r="B335" t="s">
-        <v>643</v>
+        <v>815</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B336" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B337" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B338" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B339" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B340" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>117</v>
       </c>
       <c r="B341" t="s">
-        <v>628</v>
+        <v>821</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B342" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="B343" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B344" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B345" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="B346" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B347" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B348" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B349" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B350" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B351" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="B352" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B353" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B354" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B355" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B356" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B357" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B358" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B359" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B360" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="B361" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B362" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B363" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B364" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B365" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B366" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B367" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B368" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B369" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B370" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B371" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B372" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B373" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>374</v>
+        <v>219</v>
       </c>
       <c r="B374" t="s">
-        <v>730</v>
+        <v>854</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="B375" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="B376" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B377" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="B378" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B379" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B380" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B381" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="B382" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B383" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>384</v>
+        <v>152</v>
       </c>
       <c r="B384" t="s">
-        <v>663</v>
+        <v>864</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B385" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B386" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="B387" t="s">
-        <v>585</v>
+        <v>867</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B388" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B389" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B390" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B391" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B392" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B393" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B394" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="B395" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="B396" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B397" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B398" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="B399" t="s">
-        <v>621</v>
+        <v>879</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="B400" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B401" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="B402" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="B403" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B404" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B405" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B406" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="B407" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="B408" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B409" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="B410" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B411" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="B412" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B413" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="B414" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="B415" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="B416" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="B417" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B418" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B419" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B420" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B421" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="B422" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="B423" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="B424" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="B425" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="B426" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="B427" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="B428" t="s">
-        <v>678</v>
+        <v>908</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B429" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B430" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B431" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B432" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B433" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B434" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B435" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B436" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B437" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B438" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="B439" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B440" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B441" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B442" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B443" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B444" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B445" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="B446" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="B447" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B448" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>449</v>
+        <v>363</v>
       </c>
       <c r="B449" t="s">
-        <v>874</v>
+        <v>929</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B450" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="B451" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="B452" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="B453" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B454" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="B455" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B456" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B457" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B458" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B459" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B460" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B461" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B462" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="B463" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="B464" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="B465" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="B466" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>173</v>
       </c>
       <c r="B467" t="s">
-        <v>684</v>
+        <v>947</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="B468" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>469</v>
+        <v>288</v>
       </c>
       <c r="B469" t="s">
-        <v>799</v>
+        <v>949</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="B470" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B471" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B472" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B473" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="B474" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B475" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="B476" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>477</v>
+        <v>334</v>
       </c>
       <c r="B477" t="s">
-        <v>845</v>
+        <v>957</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="B478" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="B479" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="B480" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>481</v>
+        <v>235</v>
       </c>
       <c r="B481" t="s">
-        <v>746</v>
+        <v>961</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="B482" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B483" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="B484" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B485" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="B486" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="B487" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="B488" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>489</v>
+        <v>90</v>
       </c>
       <c r="B489" t="s">
-        <v>601</v>
+        <v>969</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>490</v>
+        <v>110</v>
       </c>
       <c r="B490" t="s">
-        <v>621</v>
+        <v>970</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="B491" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>492</v>
+        <v>90</v>
       </c>
       <c r="B492" t="s">
-        <v>601</v>
+        <v>972</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="B493" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="B494" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="B495" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B496" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="B497" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="B498" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="B499" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B500" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="B501" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B502" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="B503" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="B504" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="B505" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="B506" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B507" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B508" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>509</v>
+        <v>73</v>
       </c>
       <c r="B509" t="s">
-        <v>584</v>
+        <v>989</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="B510" t="s">
         <v>990</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>511</v>
+        <v>480</v>
       </c>
       <c r="B511" t="s">
         <v>991</v>
@@ -7446,7 +7446,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>512</v>
+        <v>481</v>
       </c>
       <c r="B512" t="s">
         <v>992</v>
